--- a/work/数据统计/ber2数据统计.xlsx
+++ b/work/数据统计/ber2数据统计.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zl/catchDatas/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/catchDatas/work/数据统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B8BDC-85C8-5448-ABF6-E8B8EAE5CB3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E340A8-C17B-8C48-8063-49449A83352C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20190909" sheetId="1" r:id="rId1"/>
+    <sheet name="20191012" sheetId="3" r:id="rId1"/>
+    <sheet name="20190909" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="787">
   <si>
     <t>昵称</t>
   </si>
@@ -2264,6 +2266,125 @@
   </si>
   <si>
     <t>605873</t>
+  </si>
+  <si>
+    <t>nickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mopUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡差</t>
+  </si>
+  <si>
+    <t>静寂</t>
+  </si>
+  <si>
+    <t>94JEL93AH7XM</t>
+  </si>
+  <si>
+    <t>爱新觉罗DJQ</t>
+  </si>
+  <si>
+    <t>9SDRNT4RRMTJ</t>
+  </si>
+  <si>
+    <t>小小西瓜侠</t>
+  </si>
+  <si>
+    <t>9F1Z0931J4YN</t>
+  </si>
+  <si>
+    <t>曾多多</t>
+  </si>
+  <si>
+    <t>9SUUYU2KR5J5</t>
+  </si>
+  <si>
+    <t>有趣的卡卡</t>
+  </si>
+  <si>
+    <t>9FTW3U66H60J</t>
+  </si>
+  <si>
+    <t>石头爸爸</t>
+  </si>
+  <si>
+    <t>终肃</t>
+  </si>
+  <si>
+    <t>9QQKP0590PFD</t>
+  </si>
+  <si>
+    <t>❀  尘埃</t>
+  </si>
+  <si>
+    <t>9CL9GG2M98PF</t>
+  </si>
+  <si>
+    <t>举杯泣孤魂</t>
+  </si>
+  <si>
+    <t>978H7S4C5QHS</t>
+  </si>
+  <si>
+    <t>大大说帅</t>
+  </si>
+  <si>
+    <t>9S0XQM3KJ8YZ</t>
+  </si>
+  <si>
+    <t>Mr•皓玥</t>
+  </si>
+  <si>
+    <t>海蒂་</t>
+  </si>
+  <si>
+    <t>9LF0N92K83G7</t>
+  </si>
+  <si>
+    <t>木偶有泪</t>
+  </si>
+  <si>
+    <t>9LNKH53K0X4L</t>
+  </si>
+  <si>
+    <t>繁星夜</t>
+  </si>
+  <si>
+    <t>96RMJQ3CD8LP</t>
+  </si>
+  <si>
+    <t>XSven</t>
+  </si>
+  <si>
+    <t>9EL8SG5DSGZF</t>
+  </si>
+  <si>
+    <t>YZ LOVE</t>
+  </si>
+  <si>
+    <t>APSGS22N0K2J</t>
+  </si>
+  <si>
+    <t>G&amp;M叮当</t>
+  </si>
+  <si>
+    <t>9GKQ7141HECK</t>
+  </si>
+  <si>
+    <t>番茄小豆汤</t>
+  </si>
+  <si>
+    <t>94FQP635H371</t>
+  </si>
+  <si>
+    <t>寻风新xiao样</t>
+  </si>
+  <si>
+    <t>95R9TY5502JL</t>
   </si>
 </sst>
 </file>
@@ -2306,13 +2427,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2657,11 +2814,3221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AD9CAF-823E-3742-BA03-FCFAB71FA3E0}">
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19236</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8504215</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123293</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4822</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2499704</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2266</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19217</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7172496</v>
+      </c>
+      <c r="D3" s="1">
+        <v>58085</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2458</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1105356</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2738</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1817902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62383</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6034380</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73129</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2080</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1472574</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1">
+        <v>48875</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1626</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1436556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>67709</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5864662</v>
+      </c>
+      <c r="D5" s="1">
+        <v>51329</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3021</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1054553</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1603419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>675</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5807549</v>
+      </c>
+      <c r="D6" s="1">
+        <v>54186</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2030</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1056259</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1742</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1324648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5796890</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37700</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1619</v>
+      </c>
+      <c r="F7" s="1">
+        <v>723455</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1986</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1482976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36059</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5754854</v>
+      </c>
+      <c r="D8" s="1">
+        <v>49303</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3436</v>
+      </c>
+      <c r="F8" s="1">
+        <v>944687</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2009</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1414990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5578336</v>
+      </c>
+      <c r="D9" s="1">
+        <v>55130</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2065</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1034452</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1617</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1216893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18854</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5569163</v>
+      </c>
+      <c r="D10" s="1">
+        <v>56015</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1078743</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2026</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1208739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39619</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5544792</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50981</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1007266</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="I11" s="1">
+        <v>36925</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1733</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1121223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4885</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5535045</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46863</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2117</v>
+      </c>
+      <c r="F12" s="1">
+        <v>872464</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1703</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1145073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2956</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5487599</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33621</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>693795</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1178097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8347</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5469319</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39125</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1570</v>
+      </c>
+      <c r="F14" s="1">
+        <v>721693</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1760</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49920</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1872</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1159059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3956</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5380031</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18513</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>369622</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1227585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26309</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5320505</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35527</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>642569</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="I16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1950</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1144689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11198</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5292523</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45992</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1991</v>
+      </c>
+      <c r="F17" s="1">
+        <v>889082</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1609</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1105280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1542</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5277085</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24934</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1685</v>
+      </c>
+      <c r="F18" s="1">
+        <v>519067</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1161469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37686</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5275925</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25881</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1403</v>
+      </c>
+      <c r="F19" s="1">
+        <v>518250</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="1">
+        <v>48160</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2153</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1218147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4898</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5255813</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23927</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1767</v>
+      </c>
+      <c r="F20" s="1">
+        <v>474072</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1511</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1389232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14650</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5244952</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44724</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2152</v>
+      </c>
+      <c r="F21" s="1">
+        <v>784744</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1725</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1152431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5232507</v>
+      </c>
+      <c r="D22" s="1">
+        <v>35189</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1827</v>
+      </c>
+      <c r="F22" s="1">
+        <v>669090</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1768</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1768</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1258656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1347</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5218171</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41100</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1541</v>
+      </c>
+      <c r="F23" s="1">
+        <v>858786</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1620</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1128412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5209081</v>
+      </c>
+      <c r="D24" s="1">
+        <v>26438</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1892</v>
+      </c>
+      <c r="F24" s="1">
+        <v>484973</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2045</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1195611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3804</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5203516</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32255</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1615</v>
+      </c>
+      <c r="F25" s="1">
+        <v>471661</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45510</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2065</v>
+      </c>
+      <c r="K25" s="1">
+        <v>990252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13446</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5192628</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30801</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1862</v>
+      </c>
+      <c r="F26" s="1">
+        <v>539135</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1878</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1193619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10919</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5179987</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25575</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1982</v>
+      </c>
+      <c r="F27" s="1">
+        <v>376357</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="1">
+        <v>49985</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2104</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1062759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4191</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5158566</v>
+      </c>
+      <c r="D28" s="1">
+        <v>28719</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2502</v>
+      </c>
+      <c r="F28" s="1">
+        <v>554761</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1934</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1141545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="1">
+        <v>29445</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5145749</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17761</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1842</v>
+      </c>
+      <c r="F29" s="1">
+        <v>365318</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1852</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1111377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10713</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5121265</v>
+      </c>
+      <c r="D30" s="1">
+        <v>31648</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1778</v>
+      </c>
+      <c r="F30" s="1">
+        <v>579907</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1761</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1155878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B31" s="1">
+        <v>18291</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5118804</v>
+      </c>
+      <c r="D31" s="1">
+        <v>29191</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>544830</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1652</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1152431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3325</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5114216</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36095</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1955</v>
+      </c>
+      <c r="F32" s="1">
+        <v>716920</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1623</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1208976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B33" s="1">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5069344</v>
+      </c>
+      <c r="D33" s="1">
+        <v>27452</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>517474</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I33" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1816</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1114923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20007</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5067469</v>
+      </c>
+      <c r="D34" s="1">
+        <v>28444</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2031</v>
+      </c>
+      <c r="F34" s="1">
+        <v>525371</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1836</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1248303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B35" s="1">
+        <v>18659</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5062092</v>
+      </c>
+      <c r="D35" s="1">
+        <v>27808</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>500833</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="I35" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1191999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20650</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5051817</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31808</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>615355</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="I36" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1748</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1065725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6079</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5032463</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40568</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1893</v>
+      </c>
+      <c r="F37" s="1">
+        <v>727688</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1838</v>
+      </c>
+      <c r="K37" s="1">
+        <v>975676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11042</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4987116</v>
+      </c>
+      <c r="D38" s="1">
+        <v>21013</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1778</v>
+      </c>
+      <c r="F38" s="1">
+        <v>373820</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1641</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1106625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7594</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4952334</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22020</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1731</v>
+      </c>
+      <c r="F39" s="1">
+        <v>407954</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1680</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1894</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1201508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B40" s="1">
+        <v>33699</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4950937</v>
+      </c>
+      <c r="D40" s="1">
+        <v>22714</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1632</v>
+      </c>
+      <c r="F40" s="1">
+        <v>434881</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1771</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1159401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10081</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4948110</v>
+      </c>
+      <c r="D41" s="1">
+        <v>24139</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1677</v>
+      </c>
+      <c r="F41" s="1">
+        <v>456910</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I41" s="1">
+        <v>49690</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1925</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1134170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23871</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4888280</v>
+      </c>
+      <c r="D42" s="1">
+        <v>23671</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1690</v>
+      </c>
+      <c r="F42" s="1">
+        <v>489127</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1547</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1178499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14042</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4882135</v>
+      </c>
+      <c r="D43" s="1">
+        <v>39955</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2535</v>
+      </c>
+      <c r="F43" s="1">
+        <v>754940</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I43" s="1">
+        <v>41990</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1582</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1042931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="1">
+        <v>27247</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4880509</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29186</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1892</v>
+      </c>
+      <c r="F44" s="1">
+        <v>527495</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I44" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1701</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1205403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="1">
+        <v>37906</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4877474</v>
+      </c>
+      <c r="D45" s="1">
+        <v>37618</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1731</v>
+      </c>
+      <c r="F45" s="1">
+        <v>697612</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1774</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I45" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1636</v>
+      </c>
+      <c r="K45" s="1">
+        <v>876294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B46" s="1">
+        <v>67442</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4863976</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23603</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1688</v>
+      </c>
+      <c r="F46" s="1">
+        <v>449724</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I46" s="1">
+        <v>48820</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2010</v>
+      </c>
+      <c r="K46" s="1">
+        <v>859304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="1">
+        <v>19538</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4857226</v>
+      </c>
+      <c r="D47" s="1">
+        <v>30091</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F47" s="1">
+        <v>529238</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1563</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1096221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="1">
+        <v>355</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4853329</v>
+      </c>
+      <c r="D48" s="1">
+        <v>37683</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1805</v>
+      </c>
+      <c r="F48" s="1">
+        <v>605093</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" s="1">
+        <v>49440</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1544</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1020491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11724</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4840563</v>
+      </c>
+      <c r="D49" s="1">
+        <v>25426</v>
+      </c>
+      <c r="E49" s="1">
+        <v>839</v>
+      </c>
+      <c r="F49" s="1">
+        <v>459129</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I49" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1850</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1213869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35678</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4826127</v>
+      </c>
+      <c r="D50" s="1">
+        <v>29153</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1918</v>
+      </c>
+      <c r="F50" s="1">
+        <v>568061</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I50" s="1">
+        <v>49860</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1762</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1019020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B51" s="1">
+        <v>22624</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4821716</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20951</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>370379</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1688</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I51" s="1">
+        <v>49760</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1817</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1078077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28011</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4809042</v>
+      </c>
+      <c r="D52" s="1">
+        <v>23686</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1591</v>
+      </c>
+      <c r="F52" s="1">
+        <v>459517</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1645</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1108999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="1">
+        <v>13438</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4783745</v>
+      </c>
+      <c r="D53" s="1">
+        <v>23981</v>
+      </c>
+      <c r="E53" s="1">
+        <v>615</v>
+      </c>
+      <c r="F53" s="1">
+        <v>443583</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I53" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1810</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1085385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5073</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4783438</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25797</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>437642</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="I54" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1474</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1107291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6199</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4769897</v>
+      </c>
+      <c r="D55" s="1">
+        <v>23722</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1507</v>
+      </c>
+      <c r="F55" s="1">
+        <v>441795</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I55" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1752</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1157896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20784</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4755392</v>
+      </c>
+      <c r="D56" s="1">
+        <v>32503</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3283</v>
+      </c>
+      <c r="F56" s="1">
+        <v>564165</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1802</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I56" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1738</v>
+      </c>
+      <c r="K56" s="1">
+        <v>969378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10572</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4753931</v>
+      </c>
+      <c r="D57" s="1">
+        <v>22197</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1736</v>
+      </c>
+      <c r="F57" s="1">
+        <v>364639</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I57" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1572</v>
+      </c>
+      <c r="K57" s="1">
+        <v>920232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="1">
+        <v>21833</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4748495</v>
+      </c>
+      <c r="D58" s="1">
+        <v>26742</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F58" s="1">
+        <v>493562</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1786</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I58" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1726</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1019675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4739903</v>
+      </c>
+      <c r="D59" s="1">
+        <v>25492</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1746</v>
+      </c>
+      <c r="F59" s="1">
+        <v>422181</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I59" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1773</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1052918</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4713926</v>
+      </c>
+      <c r="D60" s="1">
+        <v>23238</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3379</v>
+      </c>
+      <c r="F60" s="1">
+        <v>491859</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I60" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1763</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1172577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16787</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4701422</v>
+      </c>
+      <c r="D61" s="1">
+        <v>24894</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1741</v>
+      </c>
+      <c r="F61" s="1">
+        <v>469157</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I61" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1676</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1071037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42171</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4637635</v>
+      </c>
+      <c r="D62" s="1">
+        <v>22033</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2160</v>
+      </c>
+      <c r="F62" s="1">
+        <v>397403</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I62" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1771</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1056324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4391</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4607339</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20640</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F63" s="1">
+        <v>393263</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I63" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1699</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1046422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B64" s="1">
+        <v>59831</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4583497</v>
+      </c>
+      <c r="D64" s="1">
+        <v>26652</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2917</v>
+      </c>
+      <c r="F64" s="1">
+        <v>521341</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="I64" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1061234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" s="1">
+        <v>796</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4581604</v>
+      </c>
+      <c r="D65" s="1">
+        <v>29176</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1352</v>
+      </c>
+      <c r="F65" s="1">
+        <v>482703</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1805</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I65" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1656</v>
+      </c>
+      <c r="K65" s="1">
+        <v>924237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B66" s="1">
+        <v>29520</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4537529</v>
+      </c>
+      <c r="D66" s="1">
+        <v>31508</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>523445</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1655</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I66" s="1">
+        <v>49840</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1561</v>
+      </c>
+      <c r="K66" s="1">
+        <v>845798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15687</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4534547</v>
+      </c>
+      <c r="D67" s="1">
+        <v>23471</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1765</v>
+      </c>
+      <c r="F67" s="1">
+        <v>411295</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I67" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1625</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1010351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B68" s="1">
+        <v>62329</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4501928</v>
+      </c>
+      <c r="D68" s="1">
+        <v>29570</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5461</v>
+      </c>
+      <c r="F68" s="1">
+        <v>605110</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30750</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1835</v>
+      </c>
+      <c r="K68" s="1">
+        <v>954546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B69" s="1">
+        <v>29344</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4497408</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20612</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1651</v>
+      </c>
+      <c r="F69" s="1">
+        <v>384360</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1768</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I69" s="1">
+        <v>49380</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1795</v>
+      </c>
+      <c r="K69" s="1">
+        <v>972618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="1">
+        <v>31498</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4471043</v>
+      </c>
+      <c r="D70" s="1">
+        <v>18032</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1952</v>
+      </c>
+      <c r="F70" s="1">
+        <v>308209</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I70" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1502</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1079013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B71" s="1">
+        <v>59533</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4462648</v>
+      </c>
+      <c r="D71" s="1">
+        <v>22384</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2442</v>
+      </c>
+      <c r="F71" s="1">
+        <v>443861</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I71" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1628</v>
+      </c>
+      <c r="K71" s="1">
+        <v>981186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7992</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4442000</v>
+      </c>
+      <c r="D72" s="1">
+        <v>26041</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2419</v>
+      </c>
+      <c r="F72" s="1">
+        <v>412716</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I72" s="1">
+        <v>49580</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1528</v>
+      </c>
+      <c r="K72" s="1">
+        <v>905010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B73" s="1">
+        <v>50153</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4426305</v>
+      </c>
+      <c r="D73" s="1">
+        <v>22589</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2032</v>
+      </c>
+      <c r="F73" s="1">
+        <v>436249</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I73" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1643</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1056790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B74" s="1">
+        <v>74066</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4425627</v>
+      </c>
+      <c r="D74" s="1">
+        <v>11936</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>208616</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="I74" s="1">
+        <v>49995</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1765</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1279720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B75" s="1">
+        <v>63598</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4415352</v>
+      </c>
+      <c r="D75" s="1">
+        <v>23009</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1502</v>
+      </c>
+      <c r="F75" s="1">
+        <v>440361</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1775</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I75" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1689</v>
+      </c>
+      <c r="K75" s="1">
+        <v>977226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B76" s="1">
+        <v>29762</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4407365</v>
+      </c>
+      <c r="D76" s="1">
+        <v>22647</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1992</v>
+      </c>
+      <c r="F76" s="1">
+        <v>364216</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I76" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1519</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1021599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B77" s="1">
+        <v>52121</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4361736</v>
+      </c>
+      <c r="D77" s="1">
+        <v>17323</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1749</v>
+      </c>
+      <c r="F77" s="1">
+        <v>298049</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I77" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1590</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1072541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5465</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4350959</v>
+      </c>
+      <c r="D78" s="1">
+        <v>29956</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1757</v>
+      </c>
+      <c r="F78" s="1">
+        <v>531960</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I78" s="1">
+        <v>48780</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1481</v>
+      </c>
+      <c r="K78" s="1">
+        <v>931194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B79" s="1">
+        <v>72524</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4348150</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20196</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>410847</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="I79" s="1">
+        <v>49990</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1602</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1114793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80" s="1">
+        <v>67962</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4321818</v>
+      </c>
+      <c r="D80" s="1">
+        <v>18553</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2159</v>
+      </c>
+      <c r="F80" s="1">
+        <v>340252</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I80" s="1">
+        <v>49465</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1752</v>
+      </c>
+      <c r="K80" s="1">
+        <v>895272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B81" s="1">
+        <v>68667</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4214286</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16991</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1843</v>
+      </c>
+      <c r="F81" s="1">
+        <v>316558</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="I81" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1663</v>
+      </c>
+      <c r="K81" s="1">
+        <v>905784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="1">
+        <v>20754</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4178844</v>
+      </c>
+      <c r="D82" s="1">
+        <v>19324</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1719</v>
+      </c>
+      <c r="F82" s="1">
+        <v>282927</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1814</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I82" s="1">
+        <v>48655</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1413</v>
+      </c>
+      <c r="K82" s="1">
+        <v>855641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66816</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4146290</v>
+      </c>
+      <c r="D83" s="1">
+        <v>24202</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1944</v>
+      </c>
+      <c r="F83" s="1">
+        <v>461314</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I83" s="1">
+        <v>48115</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1386</v>
+      </c>
+      <c r="K83" s="1">
+        <v>915732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B84" s="1">
+        <v>56567</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4132488</v>
+      </c>
+      <c r="D84" s="1">
+        <v>21028</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1777</v>
+      </c>
+      <c r="F84" s="1">
+        <v>384659</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I84" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1317</v>
+      </c>
+      <c r="K84" s="1">
+        <v>903636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B85" s="1">
+        <v>48147</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3963286</v>
+      </c>
+      <c r="D85" s="1">
+        <v>17455</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1674</v>
+      </c>
+      <c r="F85" s="1">
+        <v>289636</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="I85" s="1">
+        <v>49090</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1502</v>
+      </c>
+      <c r="K85" s="1">
+        <v>848317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B86" s="1">
+        <v>65370</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3858845</v>
+      </c>
+      <c r="D86" s="1">
+        <v>16977</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1701</v>
+      </c>
+      <c r="F86" s="1">
+        <v>266214</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="I86" s="1">
+        <v>49910</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K86" s="1">
+        <v>840153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B87" s="1">
+        <v>83803</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3768936</v>
+      </c>
+      <c r="D87" s="1">
+        <v>18075</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2050</v>
+      </c>
+      <c r="F87" s="1">
+        <v>349841</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="I87" s="1">
+        <v>47185</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1434</v>
+      </c>
+      <c r="K87" s="1">
+        <v>932303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88" s="1">
+        <v>76709</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3625186</v>
+      </c>
+      <c r="D88" s="1">
+        <v>14654</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1721</v>
+      </c>
+      <c r="F88" s="1">
+        <v>217036</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="I88" s="1">
+        <v>49510</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1500</v>
+      </c>
+      <c r="K88" s="1">
+        <v>682422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7124</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3460855</v>
+      </c>
+      <c r="D89" s="1">
+        <v>14674</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>217720</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I89" s="1">
+        <v>49045</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1330</v>
+      </c>
+      <c r="K89" s="1">
+        <v>674651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B90" s="1">
+        <v>58357</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3331824</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9335</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>139597</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I90" s="1">
+        <v>48985</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1323</v>
+      </c>
+      <c r="K90" s="1">
+        <v>592427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B91" s="1">
+        <v>100557</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1104954</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5151</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>106149</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1535</v>
+      </c>
+      <c r="J91" s="1">
+        <v>951</v>
+      </c>
+      <c r="K91" s="1">
+        <v>28998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5517,11 +8884,2880 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J89" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7753B-C767-3D43-BCD2-E525AA184417}">
+  <dimension ref="A1:J89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8054</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8382483</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74680</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1477132</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2340</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20480</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8294553</v>
+      </c>
+      <c r="D3" s="1">
+        <v>93589</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1965944</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2491</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19236</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8198797</v>
+      </c>
+      <c r="D4" s="1">
+        <v>118471</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2400580</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2266</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2145916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1176</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7390494</v>
+      </c>
+      <c r="D5" s="1">
+        <v>81285</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1627246</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2325</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1933356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19217</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6681727</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55627</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1055374</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2738</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1487836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>49037</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6256986</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43381</v>
+      </c>
+      <c r="E7" s="1">
+        <v>901910</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2524</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1494849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62383</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5665008</v>
+      </c>
+      <c r="D8" s="1">
+        <v>71049</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1430143</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1720</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1">
+        <v>38875</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1626</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1325910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1">
+        <v>67709</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5545785</v>
+      </c>
+      <c r="D9" s="1">
+        <v>48308</v>
+      </c>
+      <c r="E9" s="1">
+        <v>990571</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1445176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24285</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5527933</v>
+      </c>
+      <c r="D10" s="1">
+        <v>52827</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1001525</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1691</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2340</v>
+      </c>
+      <c r="J10" s="1">
+        <v>916992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1">
+        <v>675</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5511396</v>
+      </c>
+      <c r="D11" s="1">
+        <v>52156</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1016934</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1742</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1206363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5477166</v>
+      </c>
+      <c r="D12" s="1">
+        <v>36081</v>
+      </c>
+      <c r="E12" s="1">
+        <v>695879</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1986</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1396900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>36059</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5322497</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45867</v>
+      </c>
+      <c r="E13" s="1">
+        <v>886342</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2009</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1275625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4885</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5203386</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44746</v>
+      </c>
+      <c r="E14" s="1">
+        <v>841241</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1703</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1011899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5162387</v>
+      </c>
+      <c r="D15" s="1">
+        <v>53065</v>
+      </c>
+      <c r="E15" s="1">
+        <v>993259</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1617</v>
+      </c>
+      <c r="J15" s="1">
+        <v>970791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8347</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5148599</v>
+      </c>
+      <c r="D16" s="1">
+        <v>37555</v>
+      </c>
+      <c r="E16" s="1">
+        <v>693918</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1760</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1872</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1034111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3804</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5051851</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30640</v>
+      </c>
+      <c r="E17" s="1">
+        <v>440205</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2065</v>
+      </c>
+      <c r="J17" s="1">
+        <v>940752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5031554</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33362</v>
+      </c>
+      <c r="E18" s="1">
+        <v>633770</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1768</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1764</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1158506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4449</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5019383</v>
+      </c>
+      <c r="D19" s="1">
+        <v>28874</v>
+      </c>
+      <c r="E19" s="1">
+        <v>543222</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1904</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1079675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6079</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5019168</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38675</v>
+      </c>
+      <c r="E20" s="1">
+        <v>696339</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1808</v>
+      </c>
+      <c r="J20" s="1">
+        <v>903748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11198</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4973297</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>849464</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1719</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1609</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1039701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1542</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4971791</v>
+      </c>
+      <c r="D22" s="1">
+        <v>23249</v>
+      </c>
+      <c r="E22" s="1">
+        <v>485407</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1023121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10713</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4960470</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29870</v>
+      </c>
+      <c r="E23" s="1">
+        <v>547987</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1761</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1016442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1347</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4951598</v>
+      </c>
+      <c r="D24" s="1">
+        <v>39559</v>
+      </c>
+      <c r="E24" s="1">
+        <v>827925</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="1">
+        <v>39700</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1620</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1009378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14650</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4923088</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42572</v>
+      </c>
+      <c r="E25" s="1">
+        <v>745041</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1725</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1022438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4898</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4895690</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22160</v>
+      </c>
+      <c r="E26" s="1">
+        <v>438731</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1511</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1272943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13446</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4855480</v>
+      </c>
+      <c r="D27" s="1">
+        <v>28939</v>
+      </c>
+      <c r="E27" s="1">
+        <v>502891</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1878</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1063113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="1">
+        <v>37686</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4850704</v>
+      </c>
+      <c r="D28" s="1">
+        <v>24478</v>
+      </c>
+      <c r="E28" s="1">
+        <v>489278</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1943</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1128878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4831514</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24546</v>
+      </c>
+      <c r="E29" s="1">
+        <v>446711</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2045</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1055301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3325</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4831288</v>
+      </c>
+      <c r="D30" s="1">
+        <v>34140</v>
+      </c>
+      <c r="E30" s="1">
+        <v>678292</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1623</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1080438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29445</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4820235</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15919</v>
+      </c>
+      <c r="E31" s="1">
+        <v>324902</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1852</v>
+      </c>
+      <c r="J31" s="1">
+        <v>983522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20007</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4782569</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26413</v>
+      </c>
+      <c r="E32" s="1">
+        <v>484375</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1836</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1076231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10919</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4781579</v>
+      </c>
+      <c r="D33" s="1">
+        <v>23593</v>
+      </c>
+      <c r="E33" s="1">
+        <v>346098</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" s="1">
+        <v>39980</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2104</v>
+      </c>
+      <c r="J33" s="1">
+        <v>925013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4191</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4764069</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26217</v>
+      </c>
+      <c r="E34" s="1">
+        <v>503579</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1934</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1011811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11042</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4702322</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19235</v>
+      </c>
+      <c r="E35" s="1">
+        <v>346171</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1641</v>
+      </c>
+      <c r="J35" s="1">
+        <v>993978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10081</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4668476</v>
+      </c>
+      <c r="D36" s="1">
+        <v>22462</v>
+      </c>
+      <c r="E36" s="1">
+        <v>423270</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1925</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1001796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7594</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4665163</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20289</v>
+      </c>
+      <c r="E37" s="1">
+        <v>373246</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1680</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1879</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1080062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>33699</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4649796</v>
+      </c>
+      <c r="D38" s="1">
+        <v>21082</v>
+      </c>
+      <c r="E38" s="1">
+        <v>404037</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1771</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1053227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11724</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4615658</v>
+      </c>
+      <c r="D39" s="1">
+        <v>24587</v>
+      </c>
+      <c r="E39" s="1">
+        <v>443612</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1760</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1850</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1142531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19538</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4593213</v>
+      </c>
+      <c r="D40" s="1">
+        <v>28266</v>
+      </c>
+      <c r="E40" s="1">
+        <v>493191</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H40" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1563</v>
+      </c>
+      <c r="J40" s="1">
+        <v>972425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30381</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4592094</v>
+      </c>
+      <c r="D41" s="1">
+        <v>28634</v>
+      </c>
+      <c r="E41" s="1">
+        <v>474948</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1760</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1904</v>
+      </c>
+      <c r="J41" s="1">
+        <v>904821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15369</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4577716</v>
+      </c>
+      <c r="D42" s="1">
+        <v>23644</v>
+      </c>
+      <c r="E42" s="1">
+        <v>430702</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1601</v>
+      </c>
+      <c r="J42" s="1">
+        <v>968226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14042</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4571097</v>
+      </c>
+      <c r="D43" s="1">
+        <v>37420</v>
+      </c>
+      <c r="E43" s="1">
+        <v>708112</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1815</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1582</v>
+      </c>
+      <c r="J43" s="1">
+        <v>953030</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="1">
+        <v>27247</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4557196</v>
+      </c>
+      <c r="D44" s="1">
+        <v>27294</v>
+      </c>
+      <c r="E44" s="1">
+        <v>490212</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H44" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1701</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1089969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="1">
+        <v>37906</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4554385</v>
+      </c>
+      <c r="D45" s="1">
+        <v>35887</v>
+      </c>
+      <c r="E45" s="1">
+        <v>662267</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1774</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H45" s="1">
+        <v>39795</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1636</v>
+      </c>
+      <c r="J45" s="1">
+        <v>710050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="1">
+        <v>23871</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4525805</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21981</v>
+      </c>
+      <c r="E46" s="1">
+        <v>454082</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H46" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1547</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1039899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B47" s="1">
+        <v>13438</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4499142</v>
+      </c>
+      <c r="D47" s="1">
+        <v>23366</v>
+      </c>
+      <c r="E47" s="1">
+        <v>434033</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1822</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H47" s="1">
+        <v>39990</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1810</v>
+      </c>
+      <c r="J47" s="1">
+        <v>949943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6199</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4497011</v>
+      </c>
+      <c r="D48" s="1">
+        <v>22215</v>
+      </c>
+      <c r="E48" s="1">
+        <v>411619</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H48" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1752</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1025405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B49" s="1">
+        <v>355</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4493175</v>
+      </c>
+      <c r="D49" s="1">
+        <v>35878</v>
+      </c>
+      <c r="E49" s="1">
+        <v>577703</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1822</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H49" s="1">
+        <v>39590</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1544</v>
+      </c>
+      <c r="J49" s="1">
+        <v>862305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="1">
+        <v>796</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4480071</v>
+      </c>
+      <c r="D50" s="1">
+        <v>27824</v>
+      </c>
+      <c r="E50" s="1">
+        <v>456842</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1805</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H50" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1656</v>
+      </c>
+      <c r="J50" s="1">
+        <v>897984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="1">
+        <v>28011</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4479167</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22095</v>
+      </c>
+      <c r="E51" s="1">
+        <v>427810</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H51" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1645</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1005642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B52" s="1">
+        <v>35678</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4476723</v>
+      </c>
+      <c r="D52" s="1">
+        <v>27235</v>
+      </c>
+      <c r="E52" s="1">
+        <v>527809</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H52" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1762</v>
+      </c>
+      <c r="J52" s="1">
+        <v>915810</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10572</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4476663</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20461</v>
+      </c>
+      <c r="E53" s="1">
+        <v>334650</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H53" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1501</v>
+      </c>
+      <c r="J53" s="1">
+        <v>862072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" s="1">
+        <v>74554</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4469056</v>
+      </c>
+      <c r="D54" s="1">
+        <v>32528</v>
+      </c>
+      <c r="E54" s="1">
+        <v>657314</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1746</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="1">
+        <v>37245</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1325</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1527742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20784</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4465040</v>
+      </c>
+      <c r="D55" s="1">
+        <v>29220</v>
+      </c>
+      <c r="E55" s="1">
+        <v>498098</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1760</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H55" s="1">
+        <v>39685</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1738</v>
+      </c>
+      <c r="J55" s="1">
+        <v>871638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4444402</v>
+      </c>
+      <c r="D56" s="1">
+        <v>23746</v>
+      </c>
+      <c r="E56" s="1">
+        <v>391071</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H56" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1773</v>
+      </c>
+      <c r="J56" s="1">
+        <v>922482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16787</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4437471</v>
+      </c>
+      <c r="D57" s="1">
+        <v>23153</v>
+      </c>
+      <c r="E57" s="1">
+        <v>433638</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H57" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1676</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1006314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="1">
+        <v>21833</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4415269</v>
+      </c>
+      <c r="D58" s="1">
+        <v>24730</v>
+      </c>
+      <c r="E58" s="1">
+        <v>448062</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1786</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H58" s="1">
+        <v>39990</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1726</v>
+      </c>
+      <c r="J58" s="1">
+        <v>891554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4350383</v>
+      </c>
+      <c r="D59" s="1">
+        <v>19859</v>
+      </c>
+      <c r="E59" s="1">
+        <v>413427</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H59" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1763</v>
+      </c>
+      <c r="J59" s="1">
+        <v>996263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4391</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4331040</v>
+      </c>
+      <c r="D60" s="1">
+        <v>18674</v>
+      </c>
+      <c r="E60" s="1">
+        <v>352521</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H60" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1699</v>
+      </c>
+      <c r="J60" s="1">
+        <v>916429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42171</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4303548</v>
+      </c>
+      <c r="D61" s="1">
+        <v>19873</v>
+      </c>
+      <c r="E61" s="1">
+        <v>355081</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H61" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1771</v>
+      </c>
+      <c r="J61" s="1">
+        <v>913056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B62" s="1">
+        <v>29344</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4278249</v>
+      </c>
+      <c r="D62" s="1">
+        <v>18961</v>
+      </c>
+      <c r="E62" s="1">
+        <v>350498</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1768</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H62" s="1">
+        <v>39790</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1795</v>
+      </c>
+      <c r="J62" s="1">
+        <v>876174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15687</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4237849</v>
+      </c>
+      <c r="D63" s="1">
+        <v>21706</v>
+      </c>
+      <c r="E63" s="1">
+        <v>376741</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H63" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1625</v>
+      </c>
+      <c r="J63" s="1">
+        <v>886244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B64" s="1">
+        <v>59533</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4215682</v>
+      </c>
+      <c r="D64" s="1">
+        <v>19942</v>
+      </c>
+      <c r="E64" s="1">
+        <v>394897</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H64" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J64" s="1">
+        <v>891985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B65" s="1">
+        <v>31498</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4213271</v>
+      </c>
+      <c r="D65" s="1">
+        <v>16080</v>
+      </c>
+      <c r="E65" s="1">
+        <v>268762</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H65" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1502</v>
+      </c>
+      <c r="J65" s="1">
+        <v>998342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7992</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4205089</v>
+      </c>
+      <c r="D66" s="1">
+        <v>23622</v>
+      </c>
+      <c r="E66" s="1">
+        <v>369052</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H66" s="1">
+        <v>39585</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1528</v>
+      </c>
+      <c r="J66" s="1">
+        <v>859488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B67" s="1">
+        <v>50153</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4175096</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20557</v>
+      </c>
+      <c r="E67" s="1">
+        <v>401266</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H67" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1643</v>
+      </c>
+      <c r="J67" s="1">
+        <v>959004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B68" s="1">
+        <v>59831</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4158420</v>
+      </c>
+      <c r="D68" s="1">
+        <v>23735</v>
+      </c>
+      <c r="E68" s="1">
+        <v>462298</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1828</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H68" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1482</v>
+      </c>
+      <c r="J68" s="1">
+        <v>810915</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B69" s="1">
+        <v>29762</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4137210</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20655</v>
+      </c>
+      <c r="E69" s="1">
+        <v>334426</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1784</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H69" s="1">
+        <v>39990</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1519</v>
+      </c>
+      <c r="J69" s="1">
+        <v>932292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5465</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4122883</v>
+      </c>
+      <c r="D70" s="1">
+        <v>28199</v>
+      </c>
+      <c r="E70" s="1">
+        <v>497807</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H70" s="1">
+        <v>39585</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1481</v>
+      </c>
+      <c r="J70" s="1">
+        <v>850097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B71" s="1">
+        <v>67442</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4057326</v>
+      </c>
+      <c r="D71" s="1">
+        <v>21915</v>
+      </c>
+      <c r="E71" s="1">
+        <v>423331</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H71" s="1">
+        <v>39085</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1528</v>
+      </c>
+      <c r="J71" s="1">
+        <v>647394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B72" s="1">
+        <v>62329</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4025194</v>
+      </c>
+      <c r="D72" s="1">
+        <v>24109</v>
+      </c>
+      <c r="E72" s="1">
+        <v>491882</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H72" s="1">
+        <v>23840</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1702</v>
+      </c>
+      <c r="J72" s="1">
+        <v>924720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="1">
+        <v>63598</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4022379</v>
+      </c>
+      <c r="D73" s="1">
+        <v>21507</v>
+      </c>
+      <c r="E73" s="1">
+        <v>410504</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1736</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H73" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1582</v>
+      </c>
+      <c r="J73" s="1">
+        <v>855807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B74" s="1">
+        <v>67962</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3934962</v>
+      </c>
+      <c r="D74" s="1">
+        <v>16394</v>
+      </c>
+      <c r="E74" s="1">
+        <v>296088</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H74" s="1">
+        <v>39470</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1507</v>
+      </c>
+      <c r="J74" s="1">
+        <v>762963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20754</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3920694</v>
+      </c>
+      <c r="D75" s="1">
+        <v>17605</v>
+      </c>
+      <c r="E75" s="1">
+        <v>257049</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1760</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H75" s="1">
+        <v>38600</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1413</v>
+      </c>
+      <c r="J75" s="1">
+        <v>764349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B76" s="1">
+        <v>52121</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3917094</v>
+      </c>
+      <c r="D76" s="1">
+        <v>15574</v>
+      </c>
+      <c r="E76" s="1">
+        <v>262815</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H76" s="1">
+        <v>39715</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1417</v>
+      </c>
+      <c r="J76" s="1">
+        <v>917178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B77" s="1">
+        <v>56567</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3800643</v>
+      </c>
+      <c r="D77" s="1">
+        <v>19251</v>
+      </c>
+      <c r="E77" s="1">
+        <v>348994</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H77" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1317</v>
+      </c>
+      <c r="J77" s="1">
+        <v>772891</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B78" s="1">
+        <v>48147</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3756793</v>
+      </c>
+      <c r="D78" s="1">
+        <v>15781</v>
+      </c>
+      <c r="E78" s="1">
+        <v>255886</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1837</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H78" s="1">
+        <v>39410</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1502</v>
+      </c>
+      <c r="J78" s="1">
+        <v>759019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="1">
+        <v>68667</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3756761</v>
+      </c>
+      <c r="D79" s="1">
+        <v>15148</v>
+      </c>
+      <c r="E79" s="1">
+        <v>277440</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H79" s="1">
+        <v>39935</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1522</v>
+      </c>
+      <c r="J79" s="1">
+        <v>756006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B80" s="1">
+        <v>66816</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3751638</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22258</v>
+      </c>
+      <c r="E80" s="1">
+        <v>424771</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1828</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H80" s="1">
+        <v>37755</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1356</v>
+      </c>
+      <c r="J80" s="1">
+        <v>750161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B81" s="1">
+        <v>48648</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3732632</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16813</v>
+      </c>
+      <c r="E81" s="1">
+        <v>273588</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H81" s="1">
+        <v>39540</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1555</v>
+      </c>
+      <c r="J81" s="1">
+        <v>719721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B82" s="1">
+        <v>65097</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3678108</v>
+      </c>
+      <c r="D82" s="1">
+        <v>26390</v>
+      </c>
+      <c r="E82" s="1">
+        <v>455413</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H82" s="1">
+        <v>39975</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1410</v>
+      </c>
+      <c r="J82" s="1">
+        <v>824996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B83" s="1">
+        <v>76829</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3656551</v>
+      </c>
+      <c r="D83" s="1">
+        <v>20109</v>
+      </c>
+      <c r="E83" s="1">
+        <v>407865</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H83" s="1">
+        <v>39510</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1502</v>
+      </c>
+      <c r="J83" s="1">
+        <v>679007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B84" s="1">
+        <v>75606</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3533184</v>
+      </c>
+      <c r="D84" s="1">
+        <v>16381</v>
+      </c>
+      <c r="E84" s="1">
+        <v>351815</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H84" s="1">
+        <v>38230</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1580</v>
+      </c>
+      <c r="J84" s="1">
+        <v>443328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B85" s="1">
+        <v>65370</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3491922</v>
+      </c>
+      <c r="D85" s="1">
+        <v>15276</v>
+      </c>
+      <c r="E85" s="1">
+        <v>230932</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H85" s="1">
+        <v>39940</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1503</v>
+      </c>
+      <c r="J85" s="1">
+        <v>704400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>72107</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3483707</v>
+      </c>
+      <c r="D86" s="1">
+        <v>14536</v>
+      </c>
+      <c r="E86" s="1">
+        <v>296657</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H86" s="1">
+        <v>39200</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1362</v>
+      </c>
+      <c r="J86" s="1">
+        <v>581699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B87" s="1">
+        <v>76709</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3306990</v>
+      </c>
+      <c r="D87" s="1">
+        <v>12933</v>
+      </c>
+      <c r="E87" s="1">
+        <v>190549</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H87" s="1">
+        <v>39505</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J87" s="1">
+        <v>550433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B88" s="1">
+        <v>83803</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3306851</v>
+      </c>
+      <c r="D88" s="1">
+        <v>16025</v>
+      </c>
+      <c r="E88" s="1">
+        <v>309876</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1830</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H88" s="1">
+        <v>35305</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1332</v>
+      </c>
+      <c r="J88" s="1">
+        <v>848965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B89" s="1">
+        <v>72998</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3278358</v>
+      </c>
+      <c r="D89" s="1">
+        <v>12975</v>
+      </c>
+      <c r="E89" s="1">
+        <v>203029</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1819</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H89" s="1">
+        <v>39435</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1361</v>
+      </c>
+      <c r="J89" s="1">
+        <v>605873</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/work/数据统计/ber2数据统计.xlsx
+++ b/work/数据统计/ber2数据统计.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/catchDatas/work/数据统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E340A8-C17B-8C48-8063-49449A83352C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F70E60-C55B-6045-8AB8-E870E8E5087A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20191012" sheetId="3" r:id="rId1"/>
-    <sheet name="20190909" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="20191013" sheetId="5" r:id="rId1"/>
+    <sheet name="20191012" sheetId="3" r:id="rId2"/>
+    <sheet name="20190909" sheetId="1" r:id="rId3"/>
+    <sheet name="数据勿删" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="788">
   <si>
     <t>昵称</t>
   </si>
@@ -2272,119 +2273,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>扫荡差</t>
+  </si>
+  <si>
+    <t>静寂</t>
+  </si>
+  <si>
+    <t>94JEL93AH7XM</t>
+  </si>
+  <si>
+    <t>爱新觉罗DJQ</t>
+  </si>
+  <si>
+    <t>9SDRNT4RRMTJ</t>
+  </si>
+  <si>
+    <t>小小西瓜侠</t>
+  </si>
+  <si>
+    <t>9F1Z0931J4YN</t>
+  </si>
+  <si>
+    <t>曾多多</t>
+  </si>
+  <si>
+    <t>9SUUYU2KR5J5</t>
+  </si>
+  <si>
+    <t>有趣的卡卡</t>
+  </si>
+  <si>
+    <t>9FTW3U66H60J</t>
+  </si>
+  <si>
+    <t>石头爸爸</t>
+  </si>
+  <si>
+    <t>终肃</t>
+  </si>
+  <si>
+    <t>9QQKP0590PFD</t>
+  </si>
+  <si>
+    <t>❀  尘埃</t>
+  </si>
+  <si>
+    <t>9CL9GG2M98PF</t>
+  </si>
+  <si>
+    <t>举杯泣孤魂</t>
+  </si>
+  <si>
+    <t>978H7S4C5QHS</t>
+  </si>
+  <si>
+    <t>大大说帅</t>
+  </si>
+  <si>
+    <t>9S0XQM3KJ8YZ</t>
+  </si>
+  <si>
+    <t>Mr•皓玥</t>
+  </si>
+  <si>
+    <t>海蒂་</t>
+  </si>
+  <si>
+    <t>9LF0N92K83G7</t>
+  </si>
+  <si>
+    <t>木偶有泪</t>
+  </si>
+  <si>
+    <t>9LNKH53K0X4L</t>
+  </si>
+  <si>
+    <t>繁星夜</t>
+  </si>
+  <si>
+    <t>96RMJQ3CD8LP</t>
+  </si>
+  <si>
+    <t>XSven</t>
+  </si>
+  <si>
+    <t>9EL8SG5DSGZF</t>
+  </si>
+  <si>
+    <t>YZ LOVE</t>
+  </si>
+  <si>
+    <t>APSGS22N0K2J</t>
+  </si>
+  <si>
+    <t>G&amp;M叮当</t>
+  </si>
+  <si>
+    <t>9GKQ7141HECK</t>
+  </si>
+  <si>
+    <t>番茄小豆汤</t>
+  </si>
+  <si>
+    <t>94FQP635H371</t>
+  </si>
+  <si>
+    <t>寻风新xiao样</t>
+  </si>
+  <si>
+    <t>95R9TY5502JL</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
     <t>mopUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡差</t>
-  </si>
-  <si>
-    <t>静寂</t>
-  </si>
-  <si>
-    <t>94JEL93AH7XM</t>
-  </si>
-  <si>
-    <t>爱新觉罗DJQ</t>
-  </si>
-  <si>
-    <t>9SDRNT4RRMTJ</t>
-  </si>
-  <si>
-    <t>小小西瓜侠</t>
-  </si>
-  <si>
-    <t>9F1Z0931J4YN</t>
-  </si>
-  <si>
-    <t>曾多多</t>
-  </si>
-  <si>
-    <t>9SUUYU2KR5J5</t>
-  </si>
-  <si>
-    <t>有趣的卡卡</t>
-  </si>
-  <si>
-    <t>9FTW3U66H60J</t>
-  </si>
-  <si>
-    <t>石头爸爸</t>
-  </si>
-  <si>
-    <t>终肃</t>
-  </si>
-  <si>
-    <t>9QQKP0590PFD</t>
-  </si>
-  <si>
-    <t>❀  尘埃</t>
-  </si>
-  <si>
-    <t>9CL9GG2M98PF</t>
-  </si>
-  <si>
-    <t>举杯泣孤魂</t>
-  </si>
-  <si>
-    <t>978H7S4C5QHS</t>
-  </si>
-  <si>
-    <t>大大说帅</t>
-  </si>
-  <si>
-    <t>9S0XQM3KJ8YZ</t>
-  </si>
-  <si>
-    <t>Mr•皓玥</t>
-  </si>
-  <si>
-    <t>海蒂་</t>
-  </si>
-  <si>
-    <t>9LF0N92K83G7</t>
-  </si>
-  <si>
-    <t>木偶有泪</t>
-  </si>
-  <si>
-    <t>9LNKH53K0X4L</t>
-  </si>
-  <si>
-    <t>繁星夜</t>
-  </si>
-  <si>
-    <t>96RMJQ3CD8LP</t>
-  </si>
-  <si>
-    <t>XSven</t>
-  </si>
-  <si>
-    <t>9EL8SG5DSGZF</t>
-  </si>
-  <si>
-    <t>YZ LOVE</t>
-  </si>
-  <si>
-    <t>APSGS22N0K2J</t>
-  </si>
-  <si>
-    <t>G&amp;M叮当</t>
-  </si>
-  <si>
-    <t>9GKQ7141HECK</t>
-  </si>
-  <si>
-    <t>番茄小豆汤</t>
-  </si>
-  <si>
-    <t>94FQP635H371</t>
-  </si>
-  <si>
-    <t>寻风新xiao样</t>
-  </si>
-  <si>
-    <t>95R9TY5502JL</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2442,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2814,11 +2837,3111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D41BB1-DADD-5046-8543-2F02B88B1DCD}">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19236</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8505715</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123442</v>
+      </c>
+      <c r="E2" s="1">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2502757</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2266</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19217</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7232748</v>
+      </c>
+      <c r="D3" s="1">
+        <v>58159</v>
+      </c>
+      <c r="E3" s="1">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1107120</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2738</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1856782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62383</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6071226</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73203</v>
+      </c>
+      <c r="E4" s="1">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1474023</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1">
+        <v>48875</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1626</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1463016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>67709</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5876656</v>
+      </c>
+      <c r="D5" s="1">
+        <v>51406</v>
+      </c>
+      <c r="E5" s="1">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1055779</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1603419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>675</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5809249</v>
+      </c>
+      <c r="D6" s="1">
+        <v>54241</v>
+      </c>
+      <c r="E6" s="1">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1057109</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1742</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1324648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5802488</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37749</v>
+      </c>
+      <c r="E7" s="1">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1">
+        <v>724408</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1986</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1482976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36059</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5754854</v>
+      </c>
+      <c r="D8" s="1">
+        <v>49359</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1">
+        <v>945595</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2009</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1414990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5596916</v>
+      </c>
+      <c r="D9" s="1">
+        <v>55195</v>
+      </c>
+      <c r="E9" s="1">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1035745</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1617</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1234173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18854</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5592411</v>
+      </c>
+      <c r="D10" s="1">
+        <v>56081</v>
+      </c>
+      <c r="E10" s="1">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1080015</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2026</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1208739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39619</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5561230</v>
+      </c>
+      <c r="D11" s="1">
+        <v>51128</v>
+      </c>
+      <c r="E11" s="1">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1010344</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="I11" s="1">
+        <v>37405</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1733</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1121223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4885</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5536491</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46924</v>
+      </c>
+      <c r="E12" s="1">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>873401</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1703</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1145073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2956</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5503127</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33714</v>
+      </c>
+      <c r="E13" s="1">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1">
+        <v>695803</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1178097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8347</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5464575</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39135</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>721826</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1760</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49920</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1872</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1169859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3956</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5395907</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18563</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>370664</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1239735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26309</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5323941</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35582</v>
+      </c>
+      <c r="E16" s="1">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1">
+        <v>643666</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="I16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1950</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1144689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11198</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5305243</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46051</v>
+      </c>
+      <c r="E17" s="1">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1">
+        <v>890242</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1609</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1116440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1542</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5281979</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24988</v>
+      </c>
+      <c r="E18" s="1">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>520123</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1161469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37686</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5279874</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25944</v>
+      </c>
+      <c r="E19" s="1">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
+        <v>519557</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="1">
+        <v>48240</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2153</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1218147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4898</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5273920</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23984</v>
+      </c>
+      <c r="E20" s="1">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <v>475212</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1511</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1389232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14650</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5246152</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44785</v>
+      </c>
+      <c r="E21" s="1">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1">
+        <v>785872</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1725</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1152431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5233407</v>
+      </c>
+      <c r="D22" s="1">
+        <v>35253</v>
+      </c>
+      <c r="E22" s="1">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1">
+        <v>670366</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1768</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1768</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1258656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1347</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5219471</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41147</v>
+      </c>
+      <c r="E23" s="1">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1">
+        <v>859748</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1620</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1128412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5210811</v>
+      </c>
+      <c r="D24" s="1">
+        <v>26488</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50</v>
+      </c>
+      <c r="F24" s="1">
+        <v>486015</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2045</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1195611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13446</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5203428</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30863</v>
+      </c>
+      <c r="E25" s="1">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1">
+        <v>540429</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1878</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1193619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20650</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5185665</v>
+      </c>
+      <c r="D26" s="1">
+        <v>31870</v>
+      </c>
+      <c r="E26" s="1">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1">
+        <v>616290</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1748</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1111085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10919</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5180545</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25633</v>
+      </c>
+      <c r="E27" s="1">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1">
+        <v>377221</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="1">
+        <v>49985</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2104</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1062759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3804</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5179480</v>
+      </c>
+      <c r="D28" s="1">
+        <v>32306</v>
+      </c>
+      <c r="E28" s="1">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1">
+        <v>472683</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45510</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2065</v>
+      </c>
+      <c r="K28" s="1">
+        <v>990252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4191</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5164750</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28789</v>
+      </c>
+      <c r="E29" s="1">
+        <v>70</v>
+      </c>
+      <c r="F29" s="1">
+        <v>556269</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1934</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1141545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29445</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5150241</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17821</v>
+      </c>
+      <c r="E30" s="1">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1">
+        <v>366715</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1852</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1115409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" s="1">
+        <v>18291</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5138910</v>
+      </c>
+      <c r="D31" s="1">
+        <v>29247</v>
+      </c>
+      <c r="E31" s="1">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1">
+        <v>545852</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1652</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1169823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3325</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5135309</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36149</v>
+      </c>
+      <c r="E32" s="1">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1">
+        <v>718015</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1623</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1228629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10713</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5122063</v>
+      </c>
+      <c r="D33" s="1">
+        <v>31703</v>
+      </c>
+      <c r="E33" s="1">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1">
+        <v>580838</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1761</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1155878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B34" s="1">
+        <v>346</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5070592</v>
+      </c>
+      <c r="D34" s="1">
+        <v>27500</v>
+      </c>
+      <c r="E34" s="1">
+        <v>48</v>
+      </c>
+      <c r="F34" s="1">
+        <v>518225</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="I34" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1816</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1114923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20007</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5068847</v>
+      </c>
+      <c r="D35" s="1">
+        <v>28524</v>
+      </c>
+      <c r="E35" s="1">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1">
+        <v>526984</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1836</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1248303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B36" s="1">
+        <v>18659</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5064858</v>
+      </c>
+      <c r="D36" s="1">
+        <v>27858</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1">
+        <v>501833</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="I36" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1800</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1191999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6079</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5034723</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40633</v>
+      </c>
+      <c r="E37" s="1">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1">
+        <v>728656</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1838</v>
+      </c>
+      <c r="K37" s="1">
+        <v>975676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11042</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4996933</v>
+      </c>
+      <c r="D38" s="1">
+        <v>21070</v>
+      </c>
+      <c r="E38" s="1">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1">
+        <v>374689</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1641</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1106625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10081</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4954681</v>
+      </c>
+      <c r="D39" s="1">
+        <v>24190</v>
+      </c>
+      <c r="E39" s="1">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1">
+        <v>457913</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49690</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1925</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1134170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7594</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4953988</v>
+      </c>
+      <c r="D40" s="1">
+        <v>22074</v>
+      </c>
+      <c r="E40" s="1">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1">
+        <v>409048</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1680</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1894</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1201508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B41" s="1">
+        <v>33699</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4953118</v>
+      </c>
+      <c r="D41" s="1">
+        <v>22767</v>
+      </c>
+      <c r="E41" s="1">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1">
+        <v>435918</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1771</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1176681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23871</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4906390</v>
+      </c>
+      <c r="D42" s="1">
+        <v>23721</v>
+      </c>
+      <c r="E42" s="1">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1">
+        <v>490143</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1547</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1178499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14042</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4894675</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40060</v>
+      </c>
+      <c r="E43" s="1">
+        <v>105</v>
+      </c>
+      <c r="F43" s="1">
+        <v>757056</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I43" s="1">
+        <v>41990</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1582</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1053731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="1">
+        <v>27247</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4881906</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29243</v>
+      </c>
+      <c r="E44" s="1">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1">
+        <v>528638</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I44" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1701</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1205403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="1">
+        <v>37906</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4879294</v>
+      </c>
+      <c r="D45" s="1">
+        <v>37674</v>
+      </c>
+      <c r="E45" s="1">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1">
+        <v>698735</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1774</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I45" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1636</v>
+      </c>
+      <c r="K45" s="1">
+        <v>876294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19538</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4879152</v>
+      </c>
+      <c r="D46" s="1">
+        <v>30145</v>
+      </c>
+      <c r="E46" s="1">
+        <v>54</v>
+      </c>
+      <c r="F46" s="1">
+        <v>530310</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1563</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1097571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B47" s="1">
+        <v>67442</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4868601</v>
+      </c>
+      <c r="D47" s="1">
+        <v>23652</v>
+      </c>
+      <c r="E47" s="1">
+        <v>49</v>
+      </c>
+      <c r="F47" s="1">
+        <v>450449</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I47" s="1">
+        <v>48820</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2010</v>
+      </c>
+      <c r="K47" s="1">
+        <v>859304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="1">
+        <v>355</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4854629</v>
+      </c>
+      <c r="D48" s="1">
+        <v>37733</v>
+      </c>
+      <c r="E48" s="1">
+        <v>50</v>
+      </c>
+      <c r="F48" s="1">
+        <v>605846</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" s="1">
+        <v>49500</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1544</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1020491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="1">
+        <v>35678</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4827850</v>
+      </c>
+      <c r="D49" s="1">
+        <v>29216</v>
+      </c>
+      <c r="E49" s="1">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1">
+        <v>569336</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I49" s="1">
+        <v>49920</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1762</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1019020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="1">
+        <v>28011</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4821175</v>
+      </c>
+      <c r="D50" s="1">
+        <v>23819</v>
+      </c>
+      <c r="E50" s="1">
+        <v>133</v>
+      </c>
+      <c r="F50" s="1">
+        <v>462126</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I50" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1645</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1108999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="1">
+        <v>11724</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4814783</v>
+      </c>
+      <c r="D51" s="1">
+        <v>25486</v>
+      </c>
+      <c r="E51" s="1">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1">
+        <v>460422</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I51" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1850</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1213869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5073</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4807559</v>
+      </c>
+      <c r="D52" s="1">
+        <v>25848</v>
+      </c>
+      <c r="E52" s="1">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1">
+        <v>438406</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1474</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1111323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6199</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4792913</v>
+      </c>
+      <c r="D53" s="1">
+        <v>23920</v>
+      </c>
+      <c r="E53" s="1">
+        <v>198</v>
+      </c>
+      <c r="F53" s="1">
+        <v>445658</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1752</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1162936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" s="1">
+        <v>13438</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4786681</v>
+      </c>
+      <c r="D54" s="1">
+        <v>24017</v>
+      </c>
+      <c r="E54" s="1">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1">
+        <v>444155</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I54" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1810</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1085385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42171</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4776913</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22096</v>
+      </c>
+      <c r="E55" s="1">
+        <v>63</v>
+      </c>
+      <c r="F55" s="1">
+        <v>398739</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I55" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1875</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1056324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10572</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4766467</v>
+      </c>
+      <c r="D56" s="1">
+        <v>22248</v>
+      </c>
+      <c r="E56" s="1">
+        <v>51</v>
+      </c>
+      <c r="F56" s="1">
+        <v>365526</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I56" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1572</v>
+      </c>
+      <c r="K56" s="1">
+        <v>930537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20784</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4765464</v>
+      </c>
+      <c r="D57" s="1">
+        <v>32515</v>
+      </c>
+      <c r="E57" s="1">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1">
+        <v>564348</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1822</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I57" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1738</v>
+      </c>
+      <c r="K57" s="1">
+        <v>975546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="1">
+        <v>21833</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4750488</v>
+      </c>
+      <c r="D58" s="1">
+        <v>26795</v>
+      </c>
+      <c r="E58" s="1">
+        <v>53</v>
+      </c>
+      <c r="F58" s="1">
+        <v>494768</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1786</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I58" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1726</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1019675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4740955</v>
+      </c>
+      <c r="D59" s="1">
+        <v>25544</v>
+      </c>
+      <c r="E59" s="1">
+        <v>52</v>
+      </c>
+      <c r="F59" s="1">
+        <v>422954</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I59" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1773</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1052918</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="1">
+        <v>16787</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4710924</v>
+      </c>
+      <c r="D60" s="1">
+        <v>24950</v>
+      </c>
+      <c r="E60" s="1">
+        <v>56</v>
+      </c>
+      <c r="F60" s="1">
+        <v>470607</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I60" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1676</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1071037</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4391</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4607640</v>
+      </c>
+      <c r="D61" s="1">
+        <v>20701</v>
+      </c>
+      <c r="E61" s="1">
+        <v>61</v>
+      </c>
+      <c r="F61" s="1">
+        <v>394460</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I61" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1699</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1046422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59831</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4601448</v>
+      </c>
+      <c r="D62" s="1">
+        <v>26820</v>
+      </c>
+      <c r="E62" s="1">
+        <v>168</v>
+      </c>
+      <c r="F62" s="1">
+        <v>524738</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="I62" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1536</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1061234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B63" s="1">
+        <v>796</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4583052</v>
+      </c>
+      <c r="D63" s="1">
+        <v>29224</v>
+      </c>
+      <c r="E63" s="1">
+        <v>48</v>
+      </c>
+      <c r="F63" s="1">
+        <v>483440</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1805</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I63" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1656</v>
+      </c>
+      <c r="K63" s="1">
+        <v>924237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B64" s="1">
+        <v>29520</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4560765</v>
+      </c>
+      <c r="D64" s="1">
+        <v>31576</v>
+      </c>
+      <c r="E64" s="1">
+        <v>68</v>
+      </c>
+      <c r="F64" s="1">
+        <v>524808</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1655</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="I64" s="1">
+        <v>49960</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1561</v>
+      </c>
+      <c r="K64" s="1">
+        <v>859118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15687</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4554937</v>
+      </c>
+      <c r="D65" s="1">
+        <v>23525</v>
+      </c>
+      <c r="E65" s="1">
+        <v>54</v>
+      </c>
+      <c r="F65" s="1">
+        <v>412436</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I65" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1625</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1021331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B66" s="1">
+        <v>29344</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4539950</v>
+      </c>
+      <c r="D66" s="1">
+        <v>20668</v>
+      </c>
+      <c r="E66" s="1">
+        <v>56</v>
+      </c>
+      <c r="F66" s="1">
+        <v>385501</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1768</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I66" s="1">
+        <v>49380</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1795</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1012358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B67" s="1">
+        <v>62329</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4523901</v>
+      </c>
+      <c r="D67" s="1">
+        <v>29740</v>
+      </c>
+      <c r="E67" s="1">
+        <v>170</v>
+      </c>
+      <c r="F67" s="1">
+        <v>608659</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I67" s="1">
+        <v>31005</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1835</v>
+      </c>
+      <c r="K67" s="1">
+        <v>954546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="1">
+        <v>31498</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4494253</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18106</v>
+      </c>
+      <c r="E68" s="1">
+        <v>74</v>
+      </c>
+      <c r="F68" s="1">
+        <v>309681</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I68" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1502</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1097913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B69" s="1">
+        <v>59533</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4476631</v>
+      </c>
+      <c r="D69" s="1">
+        <v>22445</v>
+      </c>
+      <c r="E69" s="1">
+        <v>61</v>
+      </c>
+      <c r="F69" s="1">
+        <v>445102</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="I69" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1628</v>
+      </c>
+      <c r="K69" s="1">
+        <v>992922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B70" s="1">
+        <v>50153</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4459364</v>
+      </c>
+      <c r="D70" s="1">
+        <v>22711</v>
+      </c>
+      <c r="E70" s="1">
+        <v>122</v>
+      </c>
+      <c r="F70" s="1">
+        <v>438106</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I70" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1643</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1064890</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7992</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4457189</v>
+      </c>
+      <c r="D71" s="1">
+        <v>26099</v>
+      </c>
+      <c r="E71" s="1">
+        <v>58</v>
+      </c>
+      <c r="F71" s="1">
+        <v>413626</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I71" s="1">
+        <v>49580</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1528</v>
+      </c>
+      <c r="K71" s="1">
+        <v>905010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B72" s="1">
+        <v>74066</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4426600</v>
+      </c>
+      <c r="D72" s="1">
+        <v>12049</v>
+      </c>
+      <c r="E72" s="1">
+        <v>113</v>
+      </c>
+      <c r="F72" s="1">
+        <v>210888</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I72" s="1">
+        <v>49995</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1765</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1279720</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="1">
+        <v>63598</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4420839</v>
+      </c>
+      <c r="D73" s="1">
+        <v>23096</v>
+      </c>
+      <c r="E73" s="1">
+        <v>87</v>
+      </c>
+      <c r="F73" s="1">
+        <v>442117</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1775</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I73" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1689</v>
+      </c>
+      <c r="K73" s="1">
+        <v>982626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B74" s="1">
+        <v>29762</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4408161</v>
+      </c>
+      <c r="D74" s="1">
+        <v>22703</v>
+      </c>
+      <c r="E74" s="1">
+        <v>56</v>
+      </c>
+      <c r="F74" s="1">
+        <v>365090</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I74" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1519</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1021599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B75" s="1">
+        <v>52121</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4364536</v>
+      </c>
+      <c r="D75" s="1">
+        <v>17373</v>
+      </c>
+      <c r="E75" s="1">
+        <v>50</v>
+      </c>
+      <c r="F75" s="1">
+        <v>299042</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="I75" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1590</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1073891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B76" s="1">
+        <v>72524</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4357753</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20261</v>
+      </c>
+      <c r="E76" s="1">
+        <v>65</v>
+      </c>
+      <c r="F76" s="1">
+        <v>412394</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="I76" s="1">
+        <v>49990</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1602</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1114793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B77" s="1">
+        <v>5465</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4354033</v>
+      </c>
+      <c r="D77" s="1">
+        <v>30011</v>
+      </c>
+      <c r="E77" s="1">
+        <v>55</v>
+      </c>
+      <c r="F77" s="1">
+        <v>532998</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I77" s="1">
+        <v>48970</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1481</v>
+      </c>
+      <c r="K77" s="1">
+        <v>932274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B78" s="1">
+        <v>67962</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4324518</v>
+      </c>
+      <c r="D78" s="1">
+        <v>18627</v>
+      </c>
+      <c r="E78" s="1">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1">
+        <v>341743</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I78" s="1">
+        <v>49465</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1752</v>
+      </c>
+      <c r="K78" s="1">
+        <v>895272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="1">
+        <v>68667</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4219165</v>
+      </c>
+      <c r="D79" s="1">
+        <v>17045</v>
+      </c>
+      <c r="E79" s="1">
+        <v>54</v>
+      </c>
+      <c r="F79" s="1">
+        <v>317680</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="I79" s="1">
+        <v>49970</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1663</v>
+      </c>
+      <c r="K79" s="1">
+        <v>907809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B80" s="1">
+        <v>20754</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4158524</v>
+      </c>
+      <c r="D80" s="1">
+        <v>19376</v>
+      </c>
+      <c r="E80" s="1">
+        <v>52</v>
+      </c>
+      <c r="F80" s="1">
+        <v>283754</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1828</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I80" s="1">
+        <v>49005</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1413</v>
+      </c>
+      <c r="K80" s="1">
+        <v>867791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B81" s="1">
+        <v>66816</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4153060</v>
+      </c>
+      <c r="D81" s="1">
+        <v>24256</v>
+      </c>
+      <c r="E81" s="1">
+        <v>54</v>
+      </c>
+      <c r="F81" s="1">
+        <v>462354</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I81" s="1">
+        <v>48115</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1386</v>
+      </c>
+      <c r="K81" s="1">
+        <v>921948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" s="1">
+        <v>56567</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4152900</v>
+      </c>
+      <c r="D82" s="1">
+        <v>21082</v>
+      </c>
+      <c r="E82" s="1">
+        <v>54</v>
+      </c>
+      <c r="F82" s="1">
+        <v>385727</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I82" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1317</v>
+      </c>
+      <c r="K82" s="1">
+        <v>903636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B83" s="1">
+        <v>48147</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3981557</v>
+      </c>
+      <c r="D83" s="1">
+        <v>17519</v>
+      </c>
+      <c r="E83" s="1">
+        <v>64</v>
+      </c>
+      <c r="F83" s="1">
+        <v>290937</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="I83" s="1">
+        <v>49115</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1502</v>
+      </c>
+      <c r="K83" s="1">
+        <v>850646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B84" s="1">
+        <v>65370</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3860297</v>
+      </c>
+      <c r="D84" s="1">
+        <v>17029</v>
+      </c>
+      <c r="E84" s="1">
+        <v>52</v>
+      </c>
+      <c r="F84" s="1">
+        <v>267086</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="I84" s="1">
+        <v>49910</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K84" s="1">
+        <v>840153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B85" s="1">
+        <v>83803</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3782902</v>
+      </c>
+      <c r="D85" s="1">
+        <v>18135</v>
+      </c>
+      <c r="E85" s="1">
+        <v>60</v>
+      </c>
+      <c r="F85" s="1">
+        <v>351001</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="I85" s="1">
+        <v>47445</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1434</v>
+      </c>
+      <c r="K85" s="1">
+        <v>944565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B86" s="1">
+        <v>76709</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3647060</v>
+      </c>
+      <c r="D86" s="1">
+        <v>14704</v>
+      </c>
+      <c r="E86" s="1">
+        <v>50</v>
+      </c>
+      <c r="F86" s="1">
+        <v>217837</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="I86" s="1">
+        <v>49510</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1500</v>
+      </c>
+      <c r="K86" s="1">
+        <v>688278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B87" s="1">
+        <v>7124</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3475520</v>
+      </c>
+      <c r="D87" s="1">
+        <v>14728</v>
+      </c>
+      <c r="E87" s="1">
+        <v>54</v>
+      </c>
+      <c r="F87" s="1">
+        <v>218739</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="I87" s="1">
+        <v>49160</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1330</v>
+      </c>
+      <c r="K87" s="1">
+        <v>681851</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B88" s="1">
+        <v>100557</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1145746</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5223</v>
+      </c>
+      <c r="E88" s="1">
+        <v>72</v>
+      </c>
+      <c r="F88" s="1">
+        <v>107701</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I88" s="1">
+        <v>2160</v>
+      </c>
+      <c r="J88" s="1">
+        <v>951</v>
+      </c>
+      <c r="K88" s="1">
+        <v>38943</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AD9CAF-823E-3742-BA03-FCFAB71FA3E0}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2840,7 +5963,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -3143,7 +6266,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B10" s="1">
         <v>18854</v>
@@ -3164,7 +6287,7 @@
         <v>1840</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I10" s="1">
         <v>50000</v>
@@ -3178,7 +6301,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B11" s="1">
         <v>39619</v>
@@ -3199,7 +6322,7 @@
         <v>1840</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I11" s="1">
         <v>36925</v>
@@ -3248,7 +6371,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B13" s="1">
         <v>2956</v>
@@ -3269,7 +6392,7 @@
         <v>1840</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I13" s="1">
         <v>50000</v>
@@ -3318,7 +6441,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B15" s="1">
         <v>3956</v>
@@ -3339,7 +6462,7 @@
         <v>1840</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I15" s="1">
         <v>50000</v>
@@ -3353,7 +6476,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B16" s="1">
         <v>26309</v>
@@ -3374,7 +6497,7 @@
         <v>1840</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I16" s="1">
         <v>50000</v>
@@ -3703,7 +6826,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B26" s="1">
         <v>13446</v>
@@ -3878,7 +7001,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B31" s="1">
         <v>18291</v>
@@ -3899,7 +7022,7 @@
         <v>1840</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I31" s="1">
         <v>50000</v>
@@ -3948,7 +7071,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B33" s="1">
         <v>346</v>
@@ -3969,7 +7092,7 @@
         <v>1840</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I33" s="1">
         <v>50000</v>
@@ -4018,7 +7141,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B35" s="1">
         <v>18659</v>
@@ -4039,7 +7162,7 @@
         <v>1840</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I35" s="1">
         <v>50000</v>
@@ -4053,7 +7176,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B36" s="1">
         <v>20650</v>
@@ -4074,7 +7197,7 @@
         <v>1840</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I36" s="1">
         <v>50000</v>
@@ -4193,7 +7316,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B40" s="1">
         <v>33699</v>
@@ -4578,7 +7701,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B51" s="1">
         <v>22624</v>
@@ -4599,7 +7722,7 @@
         <v>1688</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I51" s="1">
         <v>49760</v>
@@ -4683,7 +7806,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B54" s="1">
         <v>5073</v>
@@ -4704,7 +7827,7 @@
         <v>1840</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I54" s="1">
         <v>50000</v>
@@ -5103,7 +8226,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B66" s="1">
         <v>29520</v>
@@ -5124,7 +8247,7 @@
         <v>1655</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I66" s="1">
         <v>49840</v>
@@ -5383,7 +8506,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B74" s="1">
         <v>74066</v>
@@ -5404,7 +8527,7 @@
         <v>1840</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I74" s="1">
         <v>49995</v>
@@ -5558,7 +8681,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B79" s="1">
         <v>72524</v>
@@ -5579,7 +8702,7 @@
         <v>1840</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I79" s="1">
         <v>49990</v>
@@ -5908,7 +9031,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B89" s="1">
         <v>7124</v>
@@ -5929,7 +9052,7 @@
         <v>1840</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I89" s="1">
         <v>49045</v>
@@ -5943,7 +9066,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B90" s="1">
         <v>58357</v>
@@ -5964,7 +9087,7 @@
         <v>1840</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I90" s="1">
         <v>48985</v>
@@ -5978,7 +9101,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B91" s="1">
         <v>100557</v>
@@ -5999,7 +9122,7 @@
         <v>1840</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I91" s="1">
         <v>1535</v>
@@ -6014,16 +9137,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
@@ -8894,2868 +12018,1573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7753B-C767-3D43-BCD2-E525AA184417}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J89"/>
+      <selection sqref="A1:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>8054</v>
+        <v>19236</v>
       </c>
       <c r="C2" s="1">
-        <v>8382483</v>
+        <v>123293</v>
       </c>
       <c r="D2" s="1">
-        <v>74680</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1477132</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2340</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2227996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>1840</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="1">
-        <v>20480</v>
+        <v>19217</v>
       </c>
       <c r="C3" s="1">
-        <v>8294553</v>
+        <v>58085</v>
       </c>
       <c r="D3" s="1">
-        <v>93589</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1965944</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2491</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2227996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>1840</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>19236</v>
+        <v>62383</v>
       </c>
       <c r="C4" s="1">
-        <v>8198797</v>
+        <v>73129</v>
       </c>
       <c r="D4" s="1">
-        <v>118471</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2400580</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2266</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2145916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>1840</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="1">
-        <v>1176</v>
+        <v>67709</v>
       </c>
       <c r="C5" s="1">
-        <v>7390494</v>
+        <v>51329</v>
       </c>
       <c r="D5" s="1">
-        <v>81285</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1627246</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2325</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1933356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>1840</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="1">
-        <v>19217</v>
+        <v>675</v>
       </c>
       <c r="C6" s="1">
-        <v>6681727</v>
+        <v>54186</v>
       </c>
       <c r="D6" s="1">
-        <v>55627</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1055374</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2738</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1487836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>1840</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="1">
-        <v>49037</v>
+        <v>10012</v>
       </c>
       <c r="C7" s="1">
-        <v>6256986</v>
+        <v>37700</v>
       </c>
       <c r="D7" s="1">
-        <v>43381</v>
-      </c>
-      <c r="E7" s="1">
-        <v>901910</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2524</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1494849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>1840</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B8" s="1">
-        <v>62383</v>
+        <v>36059</v>
       </c>
       <c r="C8" s="1">
-        <v>5665008</v>
+        <v>49303</v>
       </c>
       <c r="D8" s="1">
-        <v>71049</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1430143</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1720</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="1">
-        <v>38875</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1626</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1325910</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>1840</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B9" s="1">
-        <v>67709</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1">
-        <v>5545785</v>
+        <v>55130</v>
       </c>
       <c r="D9" s="1">
-        <v>48308</v>
-      </c>
-      <c r="E9" s="1">
-        <v>990571</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2004</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1445176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>1840</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="B10" s="1">
-        <v>24285</v>
+        <v>18854</v>
       </c>
       <c r="C10" s="1">
-        <v>5527933</v>
+        <v>56015</v>
       </c>
       <c r="D10" s="1">
-        <v>52827</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1001525</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1691</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2340</v>
-      </c>
-      <c r="J10" s="1">
-        <v>916992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>1840</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="B11" s="1">
-        <v>675</v>
+        <v>39619</v>
       </c>
       <c r="C11" s="1">
-        <v>5511396</v>
+        <v>50981</v>
       </c>
       <c r="D11" s="1">
-        <v>52156</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1016934</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1742</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1206363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>1840</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="1">
-        <v>10012</v>
+        <v>4885</v>
       </c>
       <c r="C12" s="1">
-        <v>5477166</v>
+        <v>46863</v>
       </c>
       <c r="D12" s="1">
-        <v>36081</v>
-      </c>
-      <c r="E12" s="1">
-        <v>695879</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1986</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1396900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>1840</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="B13" s="1">
-        <v>36059</v>
+        <v>2956</v>
       </c>
       <c r="C13" s="1">
-        <v>5322497</v>
+        <v>33621</v>
       </c>
       <c r="D13" s="1">
-        <v>45867</v>
-      </c>
-      <c r="E13" s="1">
-        <v>886342</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1275625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>1840</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="1">
-        <v>4885</v>
+        <v>8347</v>
       </c>
       <c r="C14" s="1">
-        <v>5203386</v>
+        <v>39125</v>
       </c>
       <c r="D14" s="1">
-        <v>44746</v>
-      </c>
-      <c r="E14" s="1">
-        <v>841241</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1703</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1011899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>1760</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="B15" s="1">
-        <v>233</v>
+        <v>3956</v>
       </c>
       <c r="C15" s="1">
-        <v>5162387</v>
+        <v>18513</v>
       </c>
       <c r="D15" s="1">
-        <v>53065</v>
-      </c>
-      <c r="E15" s="1">
-        <v>993259</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1617</v>
-      </c>
-      <c r="J15" s="1">
-        <v>970791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>1840</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="B16" s="1">
-        <v>8347</v>
+        <v>26309</v>
       </c>
       <c r="C16" s="1">
-        <v>5148599</v>
+        <v>35527</v>
       </c>
       <c r="D16" s="1">
-        <v>37555</v>
-      </c>
-      <c r="E16" s="1">
-        <v>693918</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1760</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1872</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1034111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11198</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45992</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1542</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24934</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37686</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25881</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4898</v>
+      </c>
+      <c r="C20" s="1">
+        <v>23927</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14650</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44724</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>35189</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1768</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1347</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C24" s="1">
+        <v>26438</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B25" s="1">
         <v>3804</v>
       </c>
-      <c r="C17" s="1">
-        <v>5051851</v>
-      </c>
-      <c r="D17" s="1">
-        <v>30640</v>
-      </c>
-      <c r="E17" s="1">
-        <v>440205</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C25" s="1">
+        <v>32255</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2065</v>
-      </c>
-      <c r="J17" s="1">
-        <v>940752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="1">
-        <v>19996</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5031554</v>
-      </c>
-      <c r="D18" s="1">
-        <v>33362</v>
-      </c>
-      <c r="E18" s="1">
-        <v>633770</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1768</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1764</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1158506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4449</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5019383</v>
-      </c>
-      <c r="D19" s="1">
-        <v>28874</v>
-      </c>
-      <c r="E19" s="1">
-        <v>543222</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1904</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1079675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13446</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30801</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10919</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25575</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4191</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28719</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="1">
+        <v>29445</v>
+      </c>
+      <c r="C29" s="1">
+        <v>17761</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10713</v>
+      </c>
+      <c r="C30" s="1">
+        <v>31648</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" s="1">
+        <v>18291</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29191</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3325</v>
+      </c>
+      <c r="C32" s="1">
+        <v>36095</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B33" s="1">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1">
+        <v>27452</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20007</v>
+      </c>
+      <c r="C34" s="1">
+        <v>28444</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B35" s="1">
+        <v>18659</v>
+      </c>
+      <c r="C35" s="1">
+        <v>27808</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20650</v>
+      </c>
+      <c r="C36" s="1">
+        <v>31808</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B37" s="1">
         <v>6079</v>
       </c>
-      <c r="C20" s="1">
-        <v>5019168</v>
-      </c>
-      <c r="D20" s="1">
-        <v>38675</v>
-      </c>
-      <c r="E20" s="1">
-        <v>696339</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C37" s="1">
+        <v>40568</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1808</v>
-      </c>
-      <c r="J20" s="1">
-        <v>903748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="1">
-        <v>11198</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4973297</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>849464</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1719</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1609</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1039701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1542</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4971791</v>
-      </c>
-      <c r="D22" s="1">
-        <v>23249</v>
-      </c>
-      <c r="E22" s="1">
-        <v>485407</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2004</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1023121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10713</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4960470</v>
-      </c>
-      <c r="D23" s="1">
-        <v>29870</v>
-      </c>
-      <c r="E23" s="1">
-        <v>547987</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1761</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1016442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1347</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4951598</v>
-      </c>
-      <c r="D24" s="1">
-        <v>39559</v>
-      </c>
-      <c r="E24" s="1">
-        <v>827925</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="1">
-        <v>39700</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1620</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1009378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="1">
-        <v>14650</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4923088</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42572</v>
-      </c>
-      <c r="E25" s="1">
-        <v>745041</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1725</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1022438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4898</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4895690</v>
-      </c>
-      <c r="D26" s="1">
-        <v>22160</v>
-      </c>
-      <c r="E26" s="1">
-        <v>438731</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1511</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1272943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>13446</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4855480</v>
-      </c>
-      <c r="D27" s="1">
-        <v>28939</v>
-      </c>
-      <c r="E27" s="1">
-        <v>502891</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1878</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1063113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="1">
-        <v>37686</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4850704</v>
-      </c>
-      <c r="D28" s="1">
-        <v>24478</v>
-      </c>
-      <c r="E28" s="1">
-        <v>489278</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1943</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1128878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4508</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4831514</v>
-      </c>
-      <c r="D29" s="1">
-        <v>24546</v>
-      </c>
-      <c r="E29" s="1">
-        <v>446711</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H29" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2045</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1055301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3325</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4831288</v>
-      </c>
-      <c r="D30" s="1">
-        <v>34140</v>
-      </c>
-      <c r="E30" s="1">
-        <v>678292</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1623</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1080438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="1">
-        <v>29445</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4820235</v>
-      </c>
-      <c r="D31" s="1">
-        <v>15919</v>
-      </c>
-      <c r="E31" s="1">
-        <v>324902</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1852</v>
-      </c>
-      <c r="J31" s="1">
-        <v>983522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20007</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4782569</v>
-      </c>
-      <c r="D32" s="1">
-        <v>26413</v>
-      </c>
-      <c r="E32" s="1">
-        <v>484375</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H32" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1836</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1076231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="1">
-        <v>10919</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4781579</v>
-      </c>
-      <c r="D33" s="1">
-        <v>23593</v>
-      </c>
-      <c r="E33" s="1">
-        <v>346098</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H33" s="1">
-        <v>39980</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2104</v>
-      </c>
-      <c r="J33" s="1">
-        <v>925013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4191</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4764069</v>
-      </c>
-      <c r="D34" s="1">
-        <v>26217</v>
-      </c>
-      <c r="E34" s="1">
-        <v>503579</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H34" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1934</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1011811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B38" s="1">
         <v>11042</v>
       </c>
-      <c r="C35" s="1">
-        <v>4702322</v>
-      </c>
-      <c r="D35" s="1">
-        <v>19235</v>
-      </c>
-      <c r="E35" s="1">
-        <v>346171</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="C38" s="1">
+        <v>21013</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H35" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1641</v>
-      </c>
-      <c r="J35" s="1">
-        <v>993978</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7594</v>
+      </c>
+      <c r="C39" s="1">
+        <v>22020</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B40" s="1">
+        <v>33699</v>
+      </c>
+      <c r="C40" s="1">
+        <v>22714</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B41" s="1">
         <v>10081</v>
       </c>
-      <c r="C36" s="1">
-        <v>4668476</v>
-      </c>
-      <c r="D36" s="1">
-        <v>22462</v>
-      </c>
-      <c r="E36" s="1">
-        <v>423270</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="C41" s="1">
+        <v>24139</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H36" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1925</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1001796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B37" s="1">
-        <v>7594</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4665163</v>
-      </c>
-      <c r="D37" s="1">
-        <v>20289</v>
-      </c>
-      <c r="E37" s="1">
-        <v>373246</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1680</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H37" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1879</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1080062</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B38" s="1">
-        <v>33699</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4649796</v>
-      </c>
-      <c r="D38" s="1">
-        <v>21082</v>
-      </c>
-      <c r="E38" s="1">
-        <v>404037</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H38" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1771</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1053227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" s="1">
-        <v>11724</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4615658</v>
-      </c>
-      <c r="D39" s="1">
-        <v>24587</v>
-      </c>
-      <c r="E39" s="1">
-        <v>443612</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1760</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H39" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1850</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1142531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="1">
-        <v>19538</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4593213</v>
-      </c>
-      <c r="D40" s="1">
-        <v>28266</v>
-      </c>
-      <c r="E40" s="1">
-        <v>493191</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H40" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1563</v>
-      </c>
-      <c r="J40" s="1">
-        <v>972425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="1">
-        <v>30381</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4592094</v>
-      </c>
-      <c r="D41" s="1">
-        <v>28634</v>
-      </c>
-      <c r="E41" s="1">
-        <v>474948</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1760</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1904</v>
-      </c>
-      <c r="J41" s="1">
-        <v>904821</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>336</v>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="B42" s="1">
-        <v>15369</v>
+        <v>23871</v>
       </c>
       <c r="C42" s="1">
-        <v>4577716</v>
+        <v>23671</v>
       </c>
       <c r="D42" s="1">
-        <v>23644</v>
-      </c>
-      <c r="E42" s="1">
-        <v>430702</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H42" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1601</v>
-      </c>
-      <c r="J42" s="1">
-        <v>968226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B43" s="1">
         <v>14042</v>
       </c>
       <c r="C43" s="1">
-        <v>4571097</v>
+        <v>39955</v>
       </c>
       <c r="D43" s="1">
-        <v>37420</v>
-      </c>
-      <c r="E43" s="1">
-        <v>708112</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1815</v>
-      </c>
-      <c r="G43" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H43" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1582</v>
-      </c>
-      <c r="J43" s="1">
-        <v>953030</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B44" s="1">
         <v>27247</v>
       </c>
       <c r="C44" s="1">
-        <v>4557196</v>
+        <v>29186</v>
       </c>
       <c r="D44" s="1">
-        <v>27294</v>
-      </c>
-      <c r="E44" s="1">
-        <v>490212</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G44" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H44" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1701</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1089969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B45" s="1">
         <v>37906</v>
       </c>
       <c r="C45" s="1">
-        <v>4554385</v>
+        <v>37618</v>
       </c>
       <c r="D45" s="1">
-        <v>35887</v>
-      </c>
-      <c r="E45" s="1">
-        <v>662267</v>
-      </c>
-      <c r="F45" s="1">
         <v>1774</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H45" s="1">
-        <v>39795</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1636</v>
-      </c>
-      <c r="J45" s="1">
-        <v>710050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>371</v>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="B46" s="1">
-        <v>23871</v>
+        <v>67442</v>
       </c>
       <c r="C46" s="1">
-        <v>4525805</v>
+        <v>23603</v>
       </c>
       <c r="D46" s="1">
-        <v>21981</v>
-      </c>
-      <c r="E46" s="1">
-        <v>454082</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H46" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1547</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1039899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="1">
+        <v>19538</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30091</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="1">
+        <v>355</v>
+      </c>
+      <c r="C48" s="1">
+        <v>37683</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11724</v>
+      </c>
+      <c r="C49" s="1">
+        <v>25426</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35678</v>
+      </c>
+      <c r="C50" s="1">
+        <v>29153</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B51" s="1">
+        <v>22624</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20951</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1688</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28011</v>
+      </c>
+      <c r="C52" s="1">
+        <v>23686</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B53" s="1">
         <v>13438</v>
       </c>
-      <c r="C47" s="1">
-        <v>4499142</v>
-      </c>
-      <c r="D47" s="1">
-        <v>23366</v>
-      </c>
-      <c r="E47" s="1">
-        <v>434033</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1822</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="C53" s="1">
+        <v>23981</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H47" s="1">
-        <v>39990</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1810</v>
-      </c>
-      <c r="J47" s="1">
-        <v>949943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5073</v>
+      </c>
+      <c r="C54" s="1">
+        <v>25797</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B55" s="1">
         <v>6199</v>
       </c>
-      <c r="C48" s="1">
-        <v>4497011</v>
-      </c>
-      <c r="D48" s="1">
-        <v>22215</v>
-      </c>
-      <c r="E48" s="1">
-        <v>411619</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="C55" s="1">
+        <v>23722</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H48" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1752</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1025405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B49" s="1">
-        <v>355</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4493175</v>
-      </c>
-      <c r="D49" s="1">
-        <v>35878</v>
-      </c>
-      <c r="E49" s="1">
-        <v>577703</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1822</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H49" s="1">
-        <v>39590</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1544</v>
-      </c>
-      <c r="J49" s="1">
-        <v>862305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B50" s="1">
-        <v>796</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4480071</v>
-      </c>
-      <c r="D50" s="1">
-        <v>27824</v>
-      </c>
-      <c r="E50" s="1">
-        <v>456842</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1805</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H50" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1656</v>
-      </c>
-      <c r="J50" s="1">
-        <v>897984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B51" s="1">
-        <v>28011</v>
-      </c>
-      <c r="C51" s="1">
-        <v>4479167</v>
-      </c>
-      <c r="D51" s="1">
-        <v>22095</v>
-      </c>
-      <c r="E51" s="1">
-        <v>427810</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H51" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1645</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1005642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="1">
-        <v>35678</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4476723</v>
-      </c>
-      <c r="D52" s="1">
-        <v>27235</v>
-      </c>
-      <c r="E52" s="1">
-        <v>527809</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H52" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1762</v>
-      </c>
-      <c r="J52" s="1">
-        <v>915810</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20784</v>
+      </c>
+      <c r="C56" s="1">
+        <v>32503</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1802</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B57" s="1">
         <v>10572</v>
       </c>
-      <c r="C53" s="1">
-        <v>4476663</v>
-      </c>
-      <c r="D53" s="1">
-        <v>20461</v>
-      </c>
-      <c r="E53" s="1">
-        <v>334650</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="C57" s="1">
+        <v>22197</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H53" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1501</v>
-      </c>
-      <c r="J53" s="1">
-        <v>862072</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B54" s="1">
-        <v>74554</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4469056</v>
-      </c>
-      <c r="D54" s="1">
-        <v>32528</v>
-      </c>
-      <c r="E54" s="1">
-        <v>657314</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1746</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H54" s="1">
-        <v>37245</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1325</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1527742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B55" s="1">
-        <v>20784</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4465040</v>
-      </c>
-      <c r="D55" s="1">
-        <v>29220</v>
-      </c>
-      <c r="E55" s="1">
-        <v>498098</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1760</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H55" s="1">
-        <v>39685</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1738</v>
-      </c>
-      <c r="J55" s="1">
-        <v>871638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1013</v>
-      </c>
-      <c r="C56" s="1">
-        <v>4444402</v>
-      </c>
-      <c r="D56" s="1">
-        <v>23746</v>
-      </c>
-      <c r="E56" s="1">
-        <v>391071</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H56" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1773</v>
-      </c>
-      <c r="J56" s="1">
-        <v>922482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B57" s="1">
-        <v>16787</v>
-      </c>
-      <c r="C57" s="1">
-        <v>4437471</v>
-      </c>
-      <c r="D57" s="1">
-        <v>23153</v>
-      </c>
-      <c r="E57" s="1">
-        <v>433638</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H57" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1676</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1006314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B58" s="1">
         <v>21833</v>
       </c>
       <c r="C58" s="1">
-        <v>4415269</v>
+        <v>26742</v>
       </c>
       <c r="D58" s="1">
-        <v>24730</v>
-      </c>
-      <c r="E58" s="1">
-        <v>448062</v>
-      </c>
-      <c r="F58" s="1">
         <v>1786</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H58" s="1">
-        <v>39990</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1726</v>
-      </c>
-      <c r="J58" s="1">
-        <v>891554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C59" s="1">
+        <v>25492</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <v>45819</v>
       </c>
-      <c r="C59" s="1">
-        <v>4350383</v>
-      </c>
-      <c r="D59" s="1">
-        <v>19859</v>
-      </c>
-      <c r="E59" s="1">
-        <v>413427</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="C60" s="1">
+        <v>23238</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H59" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1763</v>
-      </c>
-      <c r="J59" s="1">
-        <v>996263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16787</v>
+      </c>
+      <c r="C61" s="1">
+        <v>24894</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42171</v>
+      </c>
+      <c r="C62" s="1">
+        <v>22033</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B63" s="1">
         <v>4391</v>
       </c>
-      <c r="C60" s="1">
-        <v>4331040</v>
-      </c>
-      <c r="D60" s="1">
-        <v>18674</v>
-      </c>
-      <c r="E60" s="1">
-        <v>352521</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="C63" s="1">
+        <v>20640</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H60" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1699</v>
-      </c>
-      <c r="J60" s="1">
-        <v>916429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B61" s="1">
-        <v>42171</v>
-      </c>
-      <c r="C61" s="1">
-        <v>4303548</v>
-      </c>
-      <c r="D61" s="1">
-        <v>19873</v>
-      </c>
-      <c r="E61" s="1">
-        <v>355081</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H61" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1771</v>
-      </c>
-      <c r="J61" s="1">
-        <v>913056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B64" s="1">
+        <v>59831</v>
+      </c>
+      <c r="C64" s="1">
+        <v>26652</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" s="1">
+        <v>796</v>
+      </c>
+      <c r="C65" s="1">
+        <v>29176</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1805</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B66" s="1">
+        <v>29520</v>
+      </c>
+      <c r="C66" s="1">
+        <v>31508</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1655</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15687</v>
+      </c>
+      <c r="C67" s="1">
+        <v>23471</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B68" s="1">
+        <v>62329</v>
+      </c>
+      <c r="C68" s="1">
+        <v>29570</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B69" s="1">
         <v>29344</v>
       </c>
-      <c r="C62" s="1">
-        <v>4278249</v>
-      </c>
-      <c r="D62" s="1">
-        <v>18961</v>
-      </c>
-      <c r="E62" s="1">
-        <v>350498</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="C69" s="1">
+        <v>20612</v>
+      </c>
+      <c r="D69" s="1">
         <v>1768</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H62" s="1">
-        <v>39790</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1795</v>
-      </c>
-      <c r="J62" s="1">
-        <v>876174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B63" s="1">
-        <v>15687</v>
-      </c>
-      <c r="C63" s="1">
-        <v>4237849</v>
-      </c>
-      <c r="D63" s="1">
-        <v>21706</v>
-      </c>
-      <c r="E63" s="1">
-        <v>376741</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H63" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1625</v>
-      </c>
-      <c r="J63" s="1">
-        <v>886244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="1">
+        <v>31498</v>
+      </c>
+      <c r="C70" s="1">
+        <v>18032</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B71" s="1">
         <v>59533</v>
       </c>
-      <c r="C64" s="1">
-        <v>4215682</v>
-      </c>
-      <c r="D64" s="1">
-        <v>19942</v>
-      </c>
-      <c r="E64" s="1">
-        <v>394897</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="C71" s="1">
+        <v>22384</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H64" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1500</v>
-      </c>
-      <c r="J64" s="1">
-        <v>891985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B65" s="1">
-        <v>31498</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4213271</v>
-      </c>
-      <c r="D65" s="1">
-        <v>16080</v>
-      </c>
-      <c r="E65" s="1">
-        <v>268762</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H65" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1502</v>
-      </c>
-      <c r="J65" s="1">
-        <v>998342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B72" s="1">
         <v>7992</v>
       </c>
-      <c r="C66" s="1">
-        <v>4205089</v>
-      </c>
-      <c r="D66" s="1">
-        <v>23622</v>
-      </c>
-      <c r="E66" s="1">
-        <v>369052</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="C72" s="1">
+        <v>26041</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H66" s="1">
-        <v>39585</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1528</v>
-      </c>
-      <c r="J66" s="1">
-        <v>859488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B73" s="1">
         <v>50153</v>
       </c>
-      <c r="C67" s="1">
-        <v>4175096</v>
-      </c>
-      <c r="D67" s="1">
-        <v>20557</v>
-      </c>
-      <c r="E67" s="1">
-        <v>401266</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="C73" s="1">
+        <v>22589</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H67" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1643</v>
-      </c>
-      <c r="J67" s="1">
-        <v>959004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B68" s="1">
-        <v>59831</v>
-      </c>
-      <c r="C68" s="1">
-        <v>4158420</v>
-      </c>
-      <c r="D68" s="1">
-        <v>23735</v>
-      </c>
-      <c r="E68" s="1">
-        <v>462298</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1828</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H68" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1482</v>
-      </c>
-      <c r="J68" s="1">
-        <v>810915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B74" s="1">
+        <v>74066</v>
+      </c>
+      <c r="C74" s="1">
+        <v>11936</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B75" s="1">
+        <v>63598</v>
+      </c>
+      <c r="C75" s="1">
+        <v>23009</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1775</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B76" s="1">
         <v>29762</v>
       </c>
-      <c r="C69" s="1">
-        <v>4137210</v>
-      </c>
-      <c r="D69" s="1">
-        <v>20655</v>
-      </c>
-      <c r="E69" s="1">
-        <v>334426</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1784</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="C76" s="1">
+        <v>22647</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H69" s="1">
-        <v>39990</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1519</v>
-      </c>
-      <c r="J69" s="1">
-        <v>932292</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B77" s="1">
+        <v>52121</v>
+      </c>
+      <c r="C77" s="1">
+        <v>17323</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B78" s="1">
         <v>5465</v>
       </c>
-      <c r="C70" s="1">
-        <v>4122883</v>
-      </c>
-      <c r="D70" s="1">
-        <v>28199</v>
-      </c>
-      <c r="E70" s="1">
-        <v>497807</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="C78" s="1">
+        <v>29956</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="H70" s="1">
-        <v>39585</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1481</v>
-      </c>
-      <c r="J70" s="1">
-        <v>850097</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B71" s="1">
-        <v>67442</v>
-      </c>
-      <c r="C71" s="1">
-        <v>4057326</v>
-      </c>
-      <c r="D71" s="1">
-        <v>21915</v>
-      </c>
-      <c r="E71" s="1">
-        <v>423331</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H71" s="1">
-        <v>39085</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1528</v>
-      </c>
-      <c r="J71" s="1">
-        <v>647394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B72" s="1">
-        <v>62329</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4025194</v>
-      </c>
-      <c r="D72" s="1">
-        <v>24109</v>
-      </c>
-      <c r="E72" s="1">
-        <v>491882</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H72" s="1">
-        <v>23840</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1702</v>
-      </c>
-      <c r="J72" s="1">
-        <v>924720</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B73" s="1">
-        <v>63598</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4022379</v>
-      </c>
-      <c r="D73" s="1">
-        <v>21507</v>
-      </c>
-      <c r="E73" s="1">
-        <v>410504</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1736</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H73" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1582</v>
-      </c>
-      <c r="J73" s="1">
-        <v>855807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B79" s="1">
+        <v>72524</v>
+      </c>
+      <c r="C79" s="1">
+        <v>20196</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B80" s="1">
         <v>67962</v>
       </c>
-      <c r="C74" s="1">
-        <v>3934962</v>
-      </c>
-      <c r="D74" s="1">
-        <v>16394</v>
-      </c>
-      <c r="E74" s="1">
-        <v>296088</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="C80" s="1">
+        <v>18553</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H74" s="1">
-        <v>39470</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1507</v>
-      </c>
-      <c r="J74" s="1">
-        <v>762963</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B81" s="1">
+        <v>68667</v>
+      </c>
+      <c r="C81" s="1">
+        <v>16991</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B82" s="1">
         <v>20754</v>
       </c>
-      <c r="C75" s="1">
-        <v>3920694</v>
-      </c>
-      <c r="D75" s="1">
-        <v>17605</v>
-      </c>
-      <c r="E75" s="1">
-        <v>257049</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1760</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="C82" s="1">
+        <v>19324</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1814</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="H75" s="1">
-        <v>38600</v>
-      </c>
-      <c r="I75" s="1">
-        <v>1413</v>
-      </c>
-      <c r="J75" s="1">
-        <v>764349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B76" s="1">
-        <v>52121</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3917094</v>
-      </c>
-      <c r="D76" s="1">
-        <v>15574</v>
-      </c>
-      <c r="E76" s="1">
-        <v>262815</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="H76" s="1">
-        <v>39715</v>
-      </c>
-      <c r="I76" s="1">
-        <v>1417</v>
-      </c>
-      <c r="J76" s="1">
-        <v>917178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="1">
+        <v>66816</v>
+      </c>
+      <c r="C83" s="1">
+        <v>24202</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B84" s="1">
         <v>56567</v>
       </c>
-      <c r="C77" s="1">
-        <v>3800643</v>
-      </c>
-      <c r="D77" s="1">
-        <v>19251</v>
-      </c>
-      <c r="E77" s="1">
-        <v>348994</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="C84" s="1">
+        <v>21028</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H77" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1317</v>
-      </c>
-      <c r="J77" s="1">
-        <v>772891</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B85" s="1">
         <v>48147</v>
       </c>
-      <c r="C78" s="1">
-        <v>3756793</v>
-      </c>
-      <c r="D78" s="1">
-        <v>15781</v>
-      </c>
-      <c r="E78" s="1">
-        <v>255886</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1837</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="C85" s="1">
+        <v>17455</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H78" s="1">
-        <v>39410</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1502</v>
-      </c>
-      <c r="J78" s="1">
-        <v>759019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B79" s="1">
-        <v>68667</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3756761</v>
-      </c>
-      <c r="D79" s="1">
-        <v>15148</v>
-      </c>
-      <c r="E79" s="1">
-        <v>277440</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H79" s="1">
-        <v>39935</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1522</v>
-      </c>
-      <c r="J79" s="1">
-        <v>756006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B80" s="1">
-        <v>66816</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3751638</v>
-      </c>
-      <c r="D80" s="1">
-        <v>22258</v>
-      </c>
-      <c r="E80" s="1">
-        <v>424771</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1828</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="H80" s="1">
-        <v>37755</v>
-      </c>
-      <c r="I80" s="1">
-        <v>1356</v>
-      </c>
-      <c r="J80" s="1">
-        <v>750161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B81" s="1">
-        <v>48648</v>
-      </c>
-      <c r="C81" s="1">
-        <v>3732632</v>
-      </c>
-      <c r="D81" s="1">
-        <v>16813</v>
-      </c>
-      <c r="E81" s="1">
-        <v>273588</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="H81" s="1">
-        <v>39540</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1555</v>
-      </c>
-      <c r="J81" s="1">
-        <v>719721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B82" s="1">
-        <v>65097</v>
-      </c>
-      <c r="C82" s="1">
-        <v>3678108</v>
-      </c>
-      <c r="D82" s="1">
-        <v>26390</v>
-      </c>
-      <c r="E82" s="1">
-        <v>455413</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H82" s="1">
-        <v>39975</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1410</v>
-      </c>
-      <c r="J82" s="1">
-        <v>824996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B83" s="1">
-        <v>76829</v>
-      </c>
-      <c r="C83" s="1">
-        <v>3656551</v>
-      </c>
-      <c r="D83" s="1">
-        <v>20109</v>
-      </c>
-      <c r="E83" s="1">
-        <v>407865</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="H83" s="1">
-        <v>39510</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1502</v>
-      </c>
-      <c r="J83" s="1">
-        <v>679007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B84" s="1">
-        <v>75606</v>
-      </c>
-      <c r="C84" s="1">
-        <v>3533184</v>
-      </c>
-      <c r="D84" s="1">
-        <v>16381</v>
-      </c>
-      <c r="E84" s="1">
-        <v>351815</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H84" s="1">
-        <v>38230</v>
-      </c>
-      <c r="I84" s="1">
-        <v>1580</v>
-      </c>
-      <c r="J84" s="1">
-        <v>443328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>65370</v>
       </c>
-      <c r="C85" s="1">
-        <v>3491922</v>
-      </c>
-      <c r="D85" s="1">
-        <v>15276</v>
-      </c>
-      <c r="E85" s="1">
-        <v>230932</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="C86" s="1">
+        <v>16977</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="H85" s="1">
-        <v>39940</v>
-      </c>
-      <c r="I85" s="1">
-        <v>1503</v>
-      </c>
-      <c r="J85" s="1">
-        <v>704400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B86" s="1">
-        <v>72107</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3483707</v>
-      </c>
-      <c r="D86" s="1">
-        <v>14536</v>
-      </c>
-      <c r="E86" s="1">
-        <v>296657</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="H86" s="1">
-        <v>39200</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1362</v>
-      </c>
-      <c r="J86" s="1">
-        <v>581699</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B87" s="1">
+        <v>83803</v>
+      </c>
+      <c r="C87" s="1">
+        <v>18075</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="1">
         <v>76709</v>
       </c>
-      <c r="C87" s="1">
-        <v>3306990</v>
-      </c>
-      <c r="D87" s="1">
-        <v>12933</v>
-      </c>
-      <c r="E87" s="1">
-        <v>190549</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1840</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="C88" s="1">
+        <v>14654</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H87" s="1">
-        <v>39505</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1500</v>
-      </c>
-      <c r="J87" s="1">
-        <v>550433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B88" s="1">
-        <v>83803</v>
-      </c>
-      <c r="C88" s="1">
-        <v>3306851</v>
-      </c>
-      <c r="D88" s="1">
-        <v>16025</v>
-      </c>
-      <c r="E88" s="1">
-        <v>309876</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1830</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="H88" s="1">
-        <v>35305</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1332</v>
-      </c>
-      <c r="J88" s="1">
-        <v>848965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>738</v>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="B89" s="1">
-        <v>72998</v>
+        <v>7124</v>
       </c>
       <c r="C89" s="1">
-        <v>3278358</v>
+        <v>14674</v>
       </c>
       <c r="D89" s="1">
-        <v>12975</v>
-      </c>
-      <c r="E89" s="1">
-        <v>203029</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1819</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="H89" s="1">
-        <v>39435</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1361</v>
-      </c>
-      <c r="J89" s="1">
-        <v>605873</v>
+        <v>1840</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B90" s="1">
+        <v>58357</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9335</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B91" s="1">
+        <v>100557</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5151</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A92:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A91">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B91">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
